--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,52 +433,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1575158400000</v>
+        <v>1572566400000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>151.43000000</t>
+          <t>182.19000000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>152.49000000</t>
+          <t>184.50000000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>145.79000000</t>
+          <t>177.02000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>150.73000000</t>
+          <t>182.85000000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>344178.14088000</t>
+          <t>331519.76963000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1575244799999</v>
+        <v>1572652799999</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>51148792.08299820</t>
+          <t>60092727.13917590</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>125550</v>
+        <v>154534</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>172849.45417000</t>
+          <t>176366.39217000</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>25693814.94443980</t>
+          <t>31984647.88420370</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -492,52 +492,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1575244800000</v>
+        <v>1572652800000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150.72000000</t>
+          <t>182.86000000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>151.42000000</t>
+          <t>186.00000000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>146.71000000</t>
+          <t>181.53000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>148.65000000</t>
+          <t>182.91000000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>233839.09730000</t>
+          <t>179864.39739000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1575331199999</v>
+        <v>1572739199999</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>34768563.47186470</t>
+          <t>32936676.70820530</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>107070</v>
+        <v>107048</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>114158.87515000</t>
+          <t>89462.03413000</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>16974888.53770170</t>
+          <t>16385817.10280250</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -551,52 +551,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1575331200000</v>
+        <v>1572739200000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>148.66000000</t>
+          <t>182.90000000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>149.93000000</t>
+          <t>184.70000000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>145.77000000</t>
+          <t>178.95000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>147.17000000</t>
+          <t>181.54000000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>196329.22503000</t>
+          <t>232621.52147000</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1575417599999</v>
+        <v>1572825599999</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>29061161.10177570</t>
+          <t>42260620.37702860</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>87660</v>
+        <v>109861</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>100293.62450000</t>
+          <t>117372.86999000</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>14844721.32424090</t>
+          <t>21322878.29060180</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -610,52 +610,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1575417600000</v>
+        <v>1572825600000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>147.19000000</t>
+          <t>181.53000000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>151.98000000</t>
+          <t>188.64000000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>143.15000000</t>
+          <t>180.36000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>145.38000000</t>
+          <t>185.71000000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>434430.62379000</t>
+          <t>321175.29134000</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1575503999999</v>
+        <v>1572911999999</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>63840615.24391760</t>
+          <t>59357371.31413380</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>149648</v>
+        <v>147624</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>211404.51257000</t>
+          <t>174839.08251000</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>31089708.18797030</t>
+          <t>32310789.00236290</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -669,52 +669,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1575504000000</v>
+        <v>1572912000000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>145.45000000</t>
+          <t>185.71000000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>149.02000000</t>
+          <t>192.51000000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>143.64000000</t>
+          <t>182.22000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>148.10000000</t>
+          <t>188.68000000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>299073.53972000</t>
+          <t>389668.64720000</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1575590399999</v>
+        <v>1572998399999</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>43777241.59082360</t>
+          <t>73036074.78097270</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>111694</v>
+        <v>184562</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>159810.68936000</t>
+          <t>200247.68513000</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>23382484.67691740</t>
+          <t>37563350.67078340</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -728,52 +728,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1575590400000</v>
+        <v>1572998400000</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>148.11000000</t>
+          <t>188.65000000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>149.77000000</t>
+          <t>195.09000000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>145.74000000</t>
+          <t>187.72000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>148.45000000</t>
+          <t>191.16000000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>220674.68581000</t>
+          <t>343219.92240000</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1575676799999</v>
+        <v>1573084799999</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>32549526.39959790</t>
+          <t>65471595.20700740</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90076</v>
+        <v>160110</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>118938.06254000</t>
+          <t>173260.42539000</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>17547902.32235480</t>
+          <t>33061667.06580340</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -787,52 +787,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1575676800000</v>
+        <v>1573084800000</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>148.46000000</t>
+          <t>191.16000000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>149.49000000</t>
+          <t>192.27000000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>146.85000000</t>
+          <t>184.59000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>147.14000000</t>
+          <t>186.68000000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>140471.68588000</t>
+          <t>309882.08206000</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1575763199999</v>
+        <v>1573171199999</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20799551.34569560</t>
+          <t>58150631.27682950</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>70677</v>
+        <v>152881</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>73739.81386000</t>
+          <t>155433.46587000</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10919841.57771310</t>
+          <t>29169549.29944800</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -846,52 +846,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1575763200000</v>
+        <v>1573171200000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>147.16000000</t>
+          <t>186.67000000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>151.62000000</t>
+          <t>188.26000000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>146.11000000</t>
+          <t>181.41000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>150.44000000</t>
+          <t>183.74000000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>205301.60260000</t>
+          <t>365029.75027000</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1575849599999</v>
+        <v>1573257599999</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>30606289.28539150</t>
+          <t>67305417.40505750</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>79766</v>
+        <v>167904</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>113946.96048000</t>
+          <t>175732.31788000</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16985317.52759580</t>
+          <t>32419070.55804890</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -905,52 +905,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1575849600000</v>
+        <v>1573257600000</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>150.44000000</t>
+          <t>183.71000000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>151.19000000</t>
+          <t>185.79000000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>146.56000000</t>
+          <t>182.63000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>147.38000000</t>
+          <t>184.89000000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>243775.99249000</t>
+          <t>192073.38044000</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1575935999999</v>
+        <v>1573343999999</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>36345702.34808850</t>
+          <t>35441967.76569950</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>92204</v>
+        <v>112521</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>113225.94088000</t>
+          <t>97836.42113000</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16892414.52102660</t>
+          <t>18053843.37560730</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -964,52 +964,52 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1575936000000</v>
+        <v>1573344000000</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>147.40000000</t>
+          <t>184.86000000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>148.57000000</t>
+          <t>191.58000000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>143.81000000</t>
+          <t>183.30000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>145.56000000</t>
+          <t>188.96000000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>203215.84937000</t>
+          <t>274940.53448000</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1576022399999</v>
+        <v>1573430399999</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>29746845.43242870</t>
+          <t>51648623.28633990</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>85725</v>
+        <v>133008</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>96914.54456000</t>
+          <t>139412.49207000</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>14189982.05386240</t>
+          <t>26196034.43765130</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1023,52 +1023,52 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1576022400000</v>
+        <v>1573430400000</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>145.53000000</t>
+          <t>188.96000000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>146.34000000</t>
+          <t>190.19000000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>142.12000000</t>
+          <t>184.06000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>143.39000000</t>
+          <t>184.98000000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>157843.10484000</t>
+          <t>255579.93429000</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1576108799999</v>
+        <v>1573516799999</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22772651.16812890</t>
+          <t>47746876.45656240</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>69834</v>
+        <v>128079</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>82484.40373000</t>
+          <t>125060.86932000</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11897456.58801180</t>
+          <t>23366849.50463640</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1082,52 +1082,52 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1576108800000</v>
+        <v>1573516800000</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>143.41000000</t>
+          <t>184.98000000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>145.85000000</t>
+          <t>187.65000000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>139.24000000</t>
+          <t>182.41000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>144.87000000</t>
+          <t>187.09000000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>261615.30437000</t>
+          <t>256782.63119000</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1576195199999</v>
+        <v>1573603199999</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>37425277.03812350</t>
+          <t>47636043.35288470</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>99231</v>
+        <v>124488</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>127845.69433000</t>
+          <t>130189.09727000</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>18297930.21017830</t>
+          <t>24161522.42526670</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1141,52 +1141,52 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1576195200000</v>
+        <v>1573603200000</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>144.87000000</t>
+          <t>187.09000000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>146.00000000</t>
+          <t>189.66000000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>142.80000000</t>
+          <t>185.30000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>144.80000000</t>
+          <t>188.11000000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>160695.18556000</t>
+          <t>197273.84001000</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1576281599999</v>
+        <v>1573689599999</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23203419.96161870</t>
+          <t>36936429.93594350</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>90805</v>
+        <v>89631</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>82252.75063000</t>
+          <t>101255.98817000</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>11879184.41045830</t>
+          <t>18965818.25351880</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1200,52 +1200,52 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1576281600000</v>
+        <v>1573689600000</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>144.80000000</t>
+          <t>188.07000000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>145.07000000</t>
+          <t>188.72000000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>141.18000000</t>
+          <t>183.34000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>141.79000000</t>
+          <t>184.92000000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>126232.59201000</t>
+          <t>245505.29971000</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1576367999999</v>
+        <v>1573775999999</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18027581.35954590</t>
+          <t>45523714.09855510</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>76951</v>
+        <v>114266</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>59729.52052000</t>
+          <t>117241.99539000</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8537450.10787950</t>
+          <t>21743851.27655660</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1259,55 +1259,1825 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>1573776000000</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>184.93000000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>186.70000000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>177.67000000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>180.00000000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>407466.78964000</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1573862399999</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>74217250.17271870</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>156868</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>196587.25275000</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>35827558.08033390</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1573862400000</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>179.99000000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>183.46000000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>179.30000000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>182.37000000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>172801.52576000</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1573948799999</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>31378510.01538970</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>89596</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>86531.48564000</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>15713912.23090380</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1573948800000</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>182.37000000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>186.09000000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>180.00000000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>183.82000000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>198892.43720000</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1574035199999</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>36509968.69910130</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>93753</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>99564.29673000</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>18284470.26124200</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1574035200000</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>183.82000000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>184.06000000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>175.01000000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>178.20000000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>293551.23632000</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1574121599999</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>52985734.28078390</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>131823</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>134230.72271000</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>24254035.07827020</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1574121600000</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>178.20000000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>178.52000000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>172.65000000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>175.94000000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>275886.64110000</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1574207999999</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>48414106.95693360</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>125824</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>138098.32741000</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>24234932.99839650</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1574208000000</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>175.93000000</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>177.41000000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>173.50000000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>174.72000000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>216315.93309000</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1574294399999</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>38001672.19309860</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>106534</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>105958.65927000</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>18616351.33195330</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1574294400000</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>174.75000000</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>175.85000000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>157.26000000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>161.01000000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>473895.92992000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1574380799999</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>78641896.23038060</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>178521</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>234632.37028000</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>38906646.50159150</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1574380800000</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>161.02000000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>162.79000000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>138.00000000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>149.56000000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>977977.23794000</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1574467199999</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>147595324.56439290</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>324167</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>460516.29463000</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>69562234.11476300</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1574467200000</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>149.55000000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>154.33000000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>146.11000000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>151.84000000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>369721.09960000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1574553599999</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>55595157.56404240</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>177816</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>188200.09056000</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>28306514.67695320</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1574553600000</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>151.84000000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>152.86000000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>138.62000000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>139.96000000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>352319.21558000</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1574639999999</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>51503705.17773920</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>158774</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>169721.62425000</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>24806572.10681470</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1574640000000</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>139.99000000</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>151.50000000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>131.45000000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>145.69000000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>749675.41303000</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1574726399999</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>106186791.33716510</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>238649</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>369097.78378000</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>52341190.61922980</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1574726400000</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>145.81000000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>149.97000000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>143.37000000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>147.47000000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>354023.04298000</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1574812799999</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>51873405.03929090</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>132207</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>172671.00371000</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>25305494.21800260</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1574812800000</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>147.47000000</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>155.54000000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>140.84000000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>152.62000000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>564796.42840000</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1574899199999</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>83505998.05488960</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>192325</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>290667.89068000</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>43041430.88305020</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1574899200000</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>152.61000000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>154.63000000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>149.09000000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>150.72000000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>317714.56326000</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1574985599999</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>48324220.62056190</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>124573</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>158837.00332000</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>24159931.80938630</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1574985600000</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>150.69000000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>157.60000000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>150.23000000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>154.57000000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>328712.25558000</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1575071999999</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>50649319.12094730</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>129774</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>171812.20099000</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>26479251.48421680</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1575072000000</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>154.54000000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>155.25000000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>149.70000000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>151.37000000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>226863.41299000</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1575158399999</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>34617912.17868860</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>96632</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>115076.90179000</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>17567465.07492850</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1575158400000</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>151.43000000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>152.49000000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>145.79000000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>150.73000000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>344178.14088000</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1575244799999</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>51148792.08299820</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>125550</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>172849.45417000</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>25693814.94443980</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1575244800000</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>150.72000000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>151.42000000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>146.71000000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>148.65000000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>233839.09730000</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1575331199999</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>34768563.47186470</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>107070</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>114158.87515000</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>16974888.53770170</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1575331200000</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>148.66000000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>149.93000000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>145.77000000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>147.17000000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>196329.22503000</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1575417599999</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>29061161.10177570</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>87660</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>100293.62450000</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>14844721.32424090</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1575417600000</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>147.19000000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>151.98000000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>143.15000000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>145.38000000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>434430.62379000</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1575503999999</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>63840615.24391760</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>149648</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>211404.51257000</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>31089708.18797030</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1575504000000</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>145.45000000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>149.02000000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>143.64000000</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>148.10000000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>299073.53972000</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1575590399999</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>43777241.59082360</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>111694</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>159810.68936000</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>23382484.67691740</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1575590400000</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>148.11000000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>149.77000000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>145.74000000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>148.45000000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>220674.68581000</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1575676799999</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>32549526.39959790</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>90076</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>118938.06254000</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>17547902.32235480</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1575676800000</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>148.46000000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>149.49000000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>146.85000000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>147.14000000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>140471.68588000</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1575763199999</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>20799551.34569560</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>70677</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>73739.81386000</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>10919841.57771310</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1575763200000</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>147.16000000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>151.62000000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>146.11000000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>150.44000000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>205301.60260000</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1575849599999</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>30606289.28539150</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>79766</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>113946.96048000</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>16985317.52759580</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1575849600000</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>150.44000000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>151.19000000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>146.56000000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>147.38000000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>243775.99249000</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1575935999999</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>36345702.34808850</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>92204</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>113225.94088000</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>16892414.52102660</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1575936000000</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>147.40000000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>148.57000000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>143.81000000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>145.56000000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>203215.84937000</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1576022399999</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>29746845.43242870</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>85725</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>96914.54456000</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>14189982.05386240</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1576022400000</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>145.53000000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>146.34000000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>142.12000000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>143.39000000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>157843.10484000</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1576108799999</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>22772651.16812890</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>69834</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>82484.40373000</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>11897456.58801180</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1576108800000</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>143.41000000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>145.85000000</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>139.24000000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>144.87000000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>261615.30437000</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1576195199999</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>37425277.03812350</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>99231</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>127845.69433000</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>18297930.21017830</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1576195200000</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>144.87000000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>146.00000000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>142.80000000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>144.80000000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>160695.18556000</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1576281599999</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>23203419.96161870</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>90805</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>82252.75063000</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>11879184.41045830</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1576281600000</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>144.80000000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>145.07000000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>141.18000000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>141.79000000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>126232.59201000</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1576367999999</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>18027581.35954590</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>76951</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>59729.52052000</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>8537450.10787950</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>1576368000000</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>141.79000000</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>144.12000000</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>139.92000000</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>143.12000000</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>87598.86053000</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>142.85000000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>96086.09605000</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>1576454399999</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>12419079.42688460</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>38629</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>42411.59514000</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>6012998.17428740</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>13629940.76037980</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>43189</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>47180.03100000</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>6693421.29850030</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1575158400</v>
+        <v>1575158400000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1575244800</v>
+        <v>1575244800000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1575331200</v>
+        <v>1575331200000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1575417600</v>
+        <v>1575417600000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1575504000</v>
+        <v>1575504000000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1575590400</v>
+        <v>1575590400000</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1575676800</v>
+        <v>1575676800000</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1575763200</v>
+        <v>1575763200000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1575849600</v>
+        <v>1575849600000</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1575936000</v>
+        <v>1575936000000</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1576022400</v>
+        <v>1576022400000</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1576108800</v>
+        <v>1576108800000</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1576195200</v>
+        <v>1576195200000</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1576281600</v>
+        <v>1576281600000</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1576368000</v>
+        <v>1576368000000</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>142.25000000</t>
+          <t>142.46000000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>105242.90323000</t>
+          <t>151189.65877000</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1291,23 +1291,82 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>14935766.87971360</t>
+          <t>21495196.81888500</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>48173</v>
+        <v>77131</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>51710.45326000</t>
+          <t>73238.69048000</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7339705.91700970</t>
+          <t>10413387.06460380</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1576454400000</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>142.46000000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>142.72000000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>140.30000000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>141.12000000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>78497.62898000</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1576540799999</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>11089010.61664710</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>41602</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>33864.95452000</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>4785822.81632040</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>141.12000000</t>
+          <t>142.22000000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>78497.62898000</t>
+          <t>97817.78584000</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1350,20 +1350,20 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11089010.61664710</t>
+          <t>13822150.19547320</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>41602</v>
+        <v>48956</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>33864.95452000</t>
+          <t>45497.97767000</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4785822.81632040</t>
+          <t>6431745.54879430</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N351"/>
+  <dimension ref="A1:N352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22788,17 +22788,17 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>140.30000000</t>
+          <t>127.93000000</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>141.39000000</t>
+          <t>132.73000000</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>113962.59791000</t>
+          <t>471018.85942000</t>
         </is>
       </c>
       <c r="H351" t="n">
@@ -22806,20 +22806,20 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>16111475.61180210</t>
+          <t>63632055.58494070</t>
         </is>
       </c>
       <c r="J351" t="n">
-        <v>54388</v>
+        <v>153717</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>51865.86815000</t>
+          <t>215716.73176000</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>7334756.62631240</t>
+          <t>29112565.69520390</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
@@ -22830,6 +22830,70 @@
       <c r="N351" t="inlineStr">
         <is>
           <t>2019-12-16 08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1576540800000</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>132.72000000</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>132.98000000</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>125.81000000</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>127.21000000</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>321521.58475000</t>
+        </is>
+      </c>
+      <c r="H352" t="n">
+        <v>1576627199999</v>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>41795752.35111230</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>110021</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>157271.64742000</t>
+        </is>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>20447079.79603960</t>
+        </is>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>2019-12-17 08:00:00</t>
         </is>
       </c>
     </row>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N352"/>
+  <dimension ref="A1:N353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22852,17 +22852,17 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>125.81000000</t>
+          <t>119.11000000</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>127.21000000</t>
+          <t>121.88000000</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>321521.58475000</t>
+          <t>563257.36001000</t>
         </is>
       </c>
       <c r="H352" t="n">
@@ -22870,20 +22870,20 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>41795752.35111230</t>
+          <t>71709329.26891930</t>
         </is>
       </c>
       <c r="J352" t="n">
-        <v>110021</v>
+        <v>178977</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>157271.64742000</t>
+          <t>272414.29784000</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>20447079.79603960</t>
+          <t>34693963.88197660</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
@@ -22894,6 +22894,70 @@
       <c r="N352" t="inlineStr">
         <is>
           <t>2019-12-17 08:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1576627200000</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>121.88000000</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>129.40000000</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>116.26000000</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>127.13000000</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>658610.70636000</t>
+        </is>
+      </c>
+      <c r="H353" t="n">
+        <v>1576713599999</v>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>81049894.51678660</t>
+        </is>
+      </c>
+      <c r="J353" t="n">
+        <v>184282</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>346880.50773000</t>
+        </is>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>42673127.38978000</t>
+        </is>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>2019-12-18 08:00:00</t>
         </is>
       </c>
     </row>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -22921,12 +22921,12 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>127.13000000</t>
+          <t>127.08000000</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>658610.70636000</t>
+          <t>665126.81604000</t>
         </is>
       </c>
       <c r="H353" t="n">
@@ -22934,20 +22934,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>81049894.51678660</t>
+          <t>81879125.55131180</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>184282</v>
+        <v>187118</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>346880.50773000</t>
+          <t>350576.88889000</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>42673127.38978000</t>
+          <t>43143546.22814950</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -22921,12 +22921,12 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>127.08000000</t>
+          <t>126.48000000</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>665126.81604000</t>
+          <t>669119.30798000</t>
         </is>
       </c>
       <c r="H353" t="n">
@@ -22934,20 +22934,20 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>81879125.55131180</t>
+          <t>82385284.66629440</t>
         </is>
       </c>
       <c r="J353" t="n">
-        <v>187118</v>
+        <v>188005</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>350576.88889000</t>
+          <t>352399.75973000</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>43143546.22814950</t>
+          <t>43374582.92545460</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -2435,12 +2435,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>127.14000000</t>
+          <t>127.18000000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>117056.20255000</t>
+          <t>117174.26783000</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2448,20 +2448,20 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14894050.32577060</t>
+          <t>14909067.13294150</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>52518</v>
+        <v>52615</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>56108.69620000</t>
+          <t>56214.06181000</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>7139067.75957560</t>
+          <t>7152469.37395310</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2470,38 +2470,38 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>127.1399999999999</v>
+        <v>127.1799999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>127.665</v>
+        <v>127.685</v>
       </c>
       <c r="P22" t="n">
-        <v>130.4685714285714</v>
+        <v>130.4742857142856</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.5766666666667</v>
+        <v>138.5793333333333</v>
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>127.14</v>
+        <v>127.18</v>
       </c>
       <c r="T22" t="n">
-        <v>127.5769105669497</v>
+        <v>127.6035772336189</v>
       </c>
       <c r="U22" t="n">
-        <v>134.0794035572041</v>
+        <v>134.0857474191577</v>
       </c>
       <c r="V22" t="n">
-        <v>137.7229579217146</v>
+        <v>137.7266554124672</v>
       </c>
       <c r="W22" t="n">
-        <v>-3.643554364510464</v>
+        <v>-3.640907993309554</v>
       </c>
       <c r="X22" t="n">
-        <v>-2.396484297590332</v>
+        <v>-2.395950096212096</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.247070066920132</v>
+        <v>-1.244957897097458</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,67 +429,67 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Open_time_GST</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>MA_1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA_2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MA_7</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MA_15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MA_30</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>EMA_1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>EMA_2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>EMA_12</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>EMA_26</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>DIF</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>DEM</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>OSC</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Open_time_GST</t>
         </is>
       </c>
     </row>
@@ -498,52 +498,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1575158400000</v>
+        <v>1572566400000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>151.43000000</t>
+          <t>182.19000000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>152.49000000</t>
+          <t>184.50000000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>145.79000000</t>
+          <t>177.02000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>150.73000000</t>
+          <t>182.85000000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>344178.14088000</t>
+          <t>331519.76963000</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1575244799999</v>
+        <v>1572652799999</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>51148792.08299820</t>
+          <t>60092727.13917590</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>125550</v>
+        <v>154534</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>172849.45417000</t>
+          <t>176366.39217000</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>25693814.94443980</t>
+          <t>31984647.88420370</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -551,27 +551,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>150.73</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2019-11-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>182.85</v>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>150.73</v>
-      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>150.73</v>
+        <v>182.85</v>
       </c>
       <c r="U2" t="n">
-        <v>150.73</v>
+        <v>182.85</v>
       </c>
       <c r="V2" t="n">
-        <v>150.73</v>
+        <v>182.85</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>182.85</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -579,10 +581,8 @@
       <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2019-12-01 08:00:00</t>
-        </is>
+      <c r="Z2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -590,52 +590,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1575244800000</v>
+        <v>1572652800000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>150.72000000</t>
+          <t>182.86000000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>151.42000000</t>
+          <t>186.00000000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>146.71000000</t>
+          <t>181.53000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>148.65000000</t>
+          <t>182.91000000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>233839.09730000</t>
+          <t>179864.39739000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1575331199999</v>
+        <v>1572739199999</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>34768563.47186470</t>
+          <t>32936676.70820530</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>107070</v>
+        <v>107048</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>114158.87515000</t>
+          <t>89462.03413000</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>16974888.53770170</t>
+          <t>16385817.10280250</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -643,40 +643,40 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N3" t="n">
-        <v>148.65</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2019-11-02 08:00:00</t>
+        </is>
       </c>
       <c r="O3" t="n">
-        <v>149.69</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>182.91</v>
+      </c>
+      <c r="P3" t="n">
+        <v>182.88</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
-        <v>148.65</v>
-      </c>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>149.17</v>
+        <v>182.91</v>
       </c>
       <c r="U3" t="n">
-        <v>149.6033333333333</v>
+        <v>182.895</v>
       </c>
       <c r="V3" t="n">
-        <v>149.65</v>
+        <v>182.8825</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.04666666666665265</v>
+        <v>182.8811538461538</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.02592592592591814</v>
+        <v>0.001346153846156994</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.02074074074073451</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2019-12-02 08:00:00</t>
-        </is>
+        <v>0.0007478632478649968</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.0005982905982919976</v>
       </c>
     </row>
     <row r="4">
@@ -684,52 +684,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1575331200000</v>
+        <v>1572739200000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>148.66000000</t>
+          <t>182.90000000</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>149.93000000</t>
+          <t>184.70000000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>145.77000000</t>
+          <t>178.95000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>147.17000000</t>
+          <t>181.54000000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>196329.22503000</t>
+          <t>232621.52147000</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1575417599999</v>
+        <v>1572825599999</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>29061161.10177570</t>
+          <t>42260620.37702860</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>87660</v>
+        <v>109861</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>100293.62450000</t>
+          <t>117372.86999000</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>14844721.32424090</t>
+          <t>21322878.29060180</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -737,40 +737,40 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>147.17</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2019-11-03 08:00:00</t>
+        </is>
       </c>
       <c r="O4" t="n">
-        <v>147.91</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>181.54</v>
+      </c>
+      <c r="P4" t="n">
+        <v>182.225</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
-        <v>147.17</v>
-      </c>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>147.7853846153846</v>
+        <v>181.54</v>
       </c>
       <c r="U4" t="n">
-        <v>148.6536027713626</v>
+        <v>181.956923076923</v>
       </c>
       <c r="V4" t="n">
-        <v>148.7589600788566</v>
+        <v>182.3585219399538</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.1053573074939891</v>
+        <v>182.3992902907836</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.05847977083086524</v>
+        <v>-0.04076835082983621</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.04687753666312384</v>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2019-12-03 08:00:00</t>
-        </is>
+        <v>-0.01626697858725844</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.02450137224257776</v>
       </c>
     </row>
     <row r="5">
@@ -778,52 +778,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1575417600000</v>
+        <v>1572825600000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>147.19000000</t>
+          <t>181.53000000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>151.98000000</t>
+          <t>188.64000000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>143.15000000</t>
+          <t>180.36000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>145.38000000</t>
+          <t>185.71000000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>434430.62379000</t>
+          <t>321175.29134000</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1575503999999</v>
+        <v>1572911999999</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>63840615.24391760</t>
+          <t>59357371.31413380</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>149648</v>
+        <v>147624</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>211404.51257000</t>
+          <t>174839.08251000</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>31089708.18797030</t>
+          <t>32310789.00236290</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -831,40 +831,40 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N5" t="n">
-        <v>145.38</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2019-11-04 08:00:00</t>
+        </is>
       </c>
       <c r="O5" t="n">
-        <v>146.275</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>185.71</v>
+      </c>
+      <c r="P5" t="n">
+        <v>183.625</v>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>145.38</v>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>146.16175</v>
+        <v>185.71</v>
       </c>
       <c r="U5" t="n">
-        <v>147.6202543103448</v>
+        <v>184.49025</v>
       </c>
       <c r="V5" t="n">
-        <v>147.8143504999432</v>
+        <v>183.4164525862069</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1940961895983548</v>
+        <v>183.3248200488581</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.104420292093565</v>
+        <v>0.09163253734882915</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.08967589750478988</v>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2019-12-04 08:00:00</t>
-        </is>
+        <v>0.02028434794935659</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.07134818939947256</v>
       </c>
     </row>
     <row r="6">
@@ -872,52 +872,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1575504000000</v>
+        <v>1572912000000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>145.45000000</t>
+          <t>185.71000000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>149.02000000</t>
+          <t>192.51000000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>143.64000000</t>
+          <t>182.22000000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>148.10000000</t>
+          <t>188.68000000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>299073.53972000</t>
+          <t>389668.64720000</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1575590399999</v>
+        <v>1572998399999</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>43777241.59082360</t>
+          <t>73036074.78097270</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>111694</v>
+        <v>184562</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>159810.68936000</t>
+          <t>200247.68513000</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>23382484.67691740</t>
+          <t>37563350.67078340</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -925,40 +925,40 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>148.1</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-11-05 08:00:00</t>
+        </is>
       </c>
       <c r="O6" t="n">
-        <v>146.74</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>188.68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>187.1950000000001</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>148.1</v>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>147.4592561983471</v>
+        <v>188.68</v>
       </c>
       <c r="U6" t="n">
-        <v>147.7505994996242</v>
+        <v>187.294958677686</v>
       </c>
       <c r="V6" t="n">
-        <v>147.880593797196</v>
+        <v>184.8465396067389</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.1299942975717556</v>
+        <v>184.5667083674973</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.1120279805390048</v>
+        <v>0.279831239241588</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.01796631703275078</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>2019-12-05 08:00:00</t>
-        </is>
+        <v>0.09749368019954441</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1823375590420436</v>
       </c>
     </row>
     <row r="7">
@@ -966,52 +966,52 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1575590400000</v>
+        <v>1572998400000</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>148.11000000</t>
+          <t>188.65000000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>149.77000000</t>
+          <t>195.09000000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>145.74000000</t>
+          <t>187.72000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>148.45000000</t>
+          <t>191.16000000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>220674.68581000</t>
+          <t>343219.92240000</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1575676799999</v>
+        <v>1573084799999</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>32549526.39959790</t>
+          <t>65471595.20700740</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>90076</v>
+        <v>160110</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>118938.06254000</t>
+          <t>173260.42539000</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>17547902.32235480</t>
+          <t>33061667.06580340</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1019,40 +1019,40 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>148.45</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-11-06 08:00:00</t>
+        </is>
       </c>
       <c r="O7" t="n">
-        <v>148.275</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
+        <v>191.16</v>
+      </c>
+      <c r="P7" t="n">
+        <v>189.92</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>148.45</v>
-      </c>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>148.1206593406593</v>
+        <v>191.16</v>
       </c>
       <c r="U7" t="n">
-        <v>147.9205906165391</v>
+        <v>189.8751923076923</v>
       </c>
       <c r="V7" t="n">
-        <v>147.9946413181967</v>
+        <v>186.3810426322184</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.07405070165756911</v>
+        <v>185.88729209528</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.1017340264662764</v>
+        <v>0.4937505369383643</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02768332480870725</v>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2019-12-06 08:00:00</t>
-        </is>
+        <v>0.2049013198308058</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.2888492171075586</v>
       </c>
     </row>
     <row r="8">
@@ -1060,52 +1060,52 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1575676800000</v>
+        <v>1573084800000</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>148.46000000</t>
+          <t>191.16000000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>149.49000000</t>
+          <t>192.27000000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>146.85000000</t>
+          <t>184.59000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>147.14000000</t>
+          <t>186.68000000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>140471.68588000</t>
+          <t>309882.08206000</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1575763199999</v>
+        <v>1573171199999</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20799551.34569560</t>
+          <t>58150631.27682950</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>70677</v>
+        <v>152881</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>73739.81386000</t>
+          <t>155433.46587000</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10919841.57771310</t>
+          <t>29169549.29944800</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1113,42 +1113,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>147.1399999999999</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2019-11-07 08:00:00</t>
+        </is>
       </c>
       <c r="O8" t="n">
-        <v>147.795</v>
+        <v>186.68</v>
       </c>
       <c r="P8" t="n">
-        <v>147.9457142857143</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>188.92</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>185.6471428571429</v>
+      </c>
       <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
-        <v>147.14</v>
-      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>147.4665873741994</v>
+        <v>186.68</v>
       </c>
       <c r="U8" t="n">
-        <v>147.7464045515366</v>
+        <v>187.7440896614821</v>
       </c>
       <c r="V8" t="n">
-        <v>147.8426477900985</v>
+        <v>186.4477539228668</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.09624323856198203</v>
+        <v>186.0282710868456</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.1003444545285915</v>
+        <v>0.4194828360211886</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.004101215966609506</v>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2019-12-07 08:00:00</t>
-        </is>
+        <v>0.2592061770646492</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.1602766589565394</v>
       </c>
     </row>
     <row r="9">
@@ -1156,52 +1156,52 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1575763200000</v>
+        <v>1573171200000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>147.16000000</t>
+          <t>186.67000000</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>151.62000000</t>
+          <t>188.26000000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>146.11000000</t>
+          <t>181.41000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>150.44000000</t>
+          <t>183.74000000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>205301.60260000</t>
+          <t>365029.75027000</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1575849599999</v>
+        <v>1573257599999</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>30606289.28539150</t>
+          <t>67305417.40505750</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>79766</v>
+        <v>167904</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>113946.96048000</t>
+          <t>175732.31788000</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16985317.52759580</t>
+          <t>32419070.55804890</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1209,42 +1209,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N9" t="n">
-        <v>150.4399999999999</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2019-11-08 08:00:00</t>
+        </is>
       </c>
       <c r="O9" t="n">
-        <v>148.79</v>
+        <v>183.74</v>
       </c>
       <c r="P9" t="n">
-        <v>147.9042857142857</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
+        <v>185.21</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>185.7742857142858</v>
+      </c>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
-        <v>150.44</v>
-      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>149.4491646341463</v>
+        <v>183.74</v>
       </c>
       <c r="U9" t="n">
-        <v>148.3085164049583</v>
+        <v>185.0742896341464</v>
       </c>
       <c r="V9" t="n">
-        <v>148.2611455891528</v>
+        <v>185.8826874140631</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04737081580546487</v>
+        <v>185.6595739152284</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.06484569728104347</v>
+        <v>0.2231134988347208</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1122165130865083</v>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2019-12-08 08:00:00</t>
-        </is>
+        <v>0.2505324277630329</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.0274189289283121</v>
       </c>
     </row>
     <row r="10">
@@ -1252,52 +1252,52 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1575849600000</v>
+        <v>1573257600000</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>150.44000000</t>
+          <t>183.71000000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>151.19000000</t>
+          <t>185.79000000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>146.56000000</t>
+          <t>182.63000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>147.38000000</t>
+          <t>184.89000000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>243775.99249000</t>
+          <t>192073.38044000</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1575935999999</v>
+        <v>1573343999999</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>36345702.34808850</t>
+          <t>35441967.76569950</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>92204</v>
+        <v>112521</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>113225.94088000</t>
+          <t>97836.42113000</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16892414.52102660</t>
+          <t>18053843.37560730</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1305,42 +1305,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>147.3799999999999</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2019-11-09 08:00:00</t>
+        </is>
       </c>
       <c r="O10" t="n">
-        <v>148.91</v>
+        <v>184.8899999999999</v>
       </c>
       <c r="P10" t="n">
-        <v>147.7228571428571</v>
-      </c>
-      <c r="Q10" t="inlineStr"/>
+        <v>184.315</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>186.0571428571429</v>
+      </c>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
-        <v>147.38</v>
-      </c>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>148.0696514581851</v>
+        <v>184.89</v>
       </c>
       <c r="U10" t="n">
-        <v>148.1248228113972</v>
+        <v>184.9514236358094</v>
       </c>
       <c r="V10" t="n">
-        <v>148.1305404691068</v>
+        <v>185.686298510864</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.005717657709567447</v>
+        <v>185.5455061665838</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.05118682680431558</v>
+        <v>0.1407923442801859</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04546916909474813</v>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2019-12-09 08:00:00</t>
-        </is>
+        <v>0.2251819240551337</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.08438957977494774</v>
       </c>
     </row>
     <row r="11">
@@ -1348,52 +1348,52 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1575936000000</v>
+        <v>1573344000000</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>147.40000000</t>
+          <t>184.86000000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>148.57000000</t>
+          <t>191.58000000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>143.81000000</t>
+          <t>183.30000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>145.56000000</t>
+          <t>188.96000000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>203215.84937000</t>
+          <t>274940.53448000</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1576022399999</v>
+        <v>1573430399999</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>29746845.43242870</t>
+          <t>51648623.28633990</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>85725</v>
+        <v>133008</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>96914.54456000</t>
+          <t>139412.49207000</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>14189982.05386240</t>
+          <t>26196034.43765130</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1401,42 +1401,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N11" t="n">
-        <v>145.5599999999999</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2019-11-10 08:00:00</t>
+        </is>
       </c>
       <c r="O11" t="n">
-        <v>146.47</v>
+        <v>188.9599999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>147.4928571428571</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
+        <v>186.925</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>187.1171428571429</v>
+      </c>
       <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
-        <v>145.56</v>
-      </c>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>146.39652215147</v>
+        <v>188.96</v>
       </c>
       <c r="U11" t="n">
-        <v>147.6387898854414</v>
+        <v>187.6238531364314</v>
       </c>
       <c r="V11" t="n">
-        <v>147.7758309026381</v>
+        <v>186.3066636707495</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.137041017196708</v>
+        <v>186.0166730833925</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.07042314928112413</v>
+        <v>0.2899905873570674</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.0666178679155839</v>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2019-12-10 08:00:00</t>
-        </is>
+        <v>0.2397028267725085</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.05028776058455892</v>
       </c>
     </row>
     <row r="12">
@@ -1444,52 +1444,52 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1576022400000</v>
+        <v>1573430400000</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>145.53000000</t>
+          <t>188.96000000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>146.34000000</t>
+          <t>190.19000000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>142.12000000</t>
+          <t>184.06000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>143.39000000</t>
+          <t>184.98000000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>157843.10484000</t>
+          <t>255579.93429000</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1576108799999</v>
+        <v>1573516799999</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>22772651.16812890</t>
+          <t>47746876.45656240</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>69834</v>
+        <v>128079</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>82484.40373000</t>
+          <t>125060.86932000</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11897456.58801180</t>
+          <t>23366849.50463640</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1497,42 +1497,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>143.3899999999999</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2019-11-11 08:00:00</t>
+        </is>
       </c>
       <c r="O12" t="n">
-        <v>144.475</v>
+        <v>184.9799999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>147.2085714285714</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
+        <v>186.97</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>187.0128571428572</v>
+      </c>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
-        <v>143.39</v>
-      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>144.3921627358224</v>
+        <v>184.98</v>
       </c>
       <c r="U12" t="n">
-        <v>146.8613637819657</v>
+        <v>185.8612744290021</v>
       </c>
       <c r="V12" t="n">
-        <v>147.2069872451328</v>
+        <v>186.0639162071229</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.3456234631671009</v>
+        <v>185.882216256058</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.1306354054823743</v>
+        <v>0.1816999510648998</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.2149880576847266</v>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2019-12-11 08:00:00</t>
-        </is>
+        <v>0.2270121289924077</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.04531217792750789</v>
       </c>
     </row>
     <row r="13">
@@ -1540,52 +1540,52 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1576108800000</v>
+        <v>1573516800000</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>143.41000000</t>
+          <t>184.98000000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>145.85000000</t>
+          <t>187.65000000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>139.24000000</t>
+          <t>182.41000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>144.87000000</t>
+          <t>187.09000000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>261615.30437000</t>
+          <t>256782.63119000</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1576195199999</v>
+        <v>1573603199999</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>37425277.03812350</t>
+          <t>47636043.35288470</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>99231</v>
+        <v>124488</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>127845.69433000</t>
+          <t>130189.09727000</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>18297930.21017830</t>
+          <t>24161522.42526670</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1593,42 +1593,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N13" t="n">
-        <v>144.8699999999999</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2019-11-12 08:00:00</t>
+        </is>
       </c>
       <c r="O13" t="n">
-        <v>144.13</v>
+        <v>187.0899999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>146.7471428571428</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+        <v>186.035</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>186.7857142857143</v>
+      </c>
       <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>144.87</v>
-      </c>
+      <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>144.7107215113653</v>
+        <v>187.09</v>
       </c>
       <c r="U13" t="n">
-        <v>146.5073058388998</v>
+        <v>186.6804263510462</v>
       </c>
       <c r="V13" t="n">
-        <v>146.9198515395354</v>
+        <v>186.2463505370074</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.4125457006356044</v>
+        <v>186.030611519339</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.1911779140200116</v>
+        <v>0.215739017668426</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.2213677866155928</v>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2019-12-12 08:00:00</t>
-        </is>
+        <v>0.2245911374560505</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.008852119787624568</v>
       </c>
     </row>
     <row r="14">
@@ -1636,52 +1636,52 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1576195200000</v>
+        <v>1573603200000</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>144.87000000</t>
+          <t>187.09000000</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>146.00000000</t>
+          <t>189.66000000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>142.80000000</t>
+          <t>185.30000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>144.80000000</t>
+          <t>188.11000000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>160695.18556000</t>
+          <t>197273.84001000</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1576281599999</v>
+        <v>1573689599999</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23203419.96161870</t>
+          <t>36936429.93594350</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>90805</v>
+        <v>89631</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>82252.75063000</t>
+          <t>101255.98817000</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>11879184.41045830</t>
+          <t>18965818.25351880</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1689,42 +1689,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N14" t="n">
-        <v>144.8</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2019-11-13 08:00:00</t>
+        </is>
       </c>
       <c r="O14" t="n">
-        <v>144.835</v>
+        <v>188.1099999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>146.2257142857142</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+        <v>187.6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>186.35</v>
+      </c>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>144.8</v>
-      </c>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>144.7702405411203</v>
+        <v>188.11</v>
       </c>
       <c r="U14" t="n">
-        <v>146.2108526856007</v>
+        <v>187.6334760481258</v>
       </c>
       <c r="V14" t="n">
-        <v>146.671511314044</v>
+        <v>186.5699508828626</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.4606586284433547</v>
+        <v>186.2742115047817</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.2482093957714291</v>
+        <v>0.2957393780808673</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.2124492326719256</v>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2019-12-13 08:00:00</t>
-        </is>
+        <v>0.2396485770784839</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.05609080100238334</v>
       </c>
     </row>
     <row r="15">
@@ -1732,52 +1732,52 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1576281600000</v>
+        <v>1573689600000</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>144.80000000</t>
+          <t>188.07000000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>145.07000000</t>
+          <t>188.72000000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>141.18000000</t>
+          <t>183.34000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>141.79000000</t>
+          <t>184.92000000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>126232.59201000</t>
+          <t>245505.29971000</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1576367999999</v>
+        <v>1573775999999</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>18027581.35954590</t>
+          <t>45523714.09855510</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>76951</v>
+        <v>114266</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>59729.52052000</t>
+          <t>117241.99539000</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8537450.10787950</t>
+          <t>21743851.27655660</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1785,42 +1785,42 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>141.7899999999999</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2019-11-14 08:00:00</t>
+        </is>
       </c>
       <c r="O15" t="n">
-        <v>143.295</v>
+        <v>184.9199999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>145.4614285714285</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
+        <v>186.5149999999999</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>186.0985714285714</v>
+      </c>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>141.79</v>
-      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>142.7834130983105</v>
+        <v>184.92</v>
       </c>
       <c r="U15" t="n">
-        <v>145.4581226231473</v>
+        <v>185.8244916378282</v>
       </c>
       <c r="V15" t="n">
-        <v>146.1232594997505</v>
+        <v>186.2890169274862</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.6651368766031567</v>
+        <v>186.1221174366398</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.3354309358375854</v>
+        <v>0.1668994908463901</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.3297059407655713</v>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>2019-12-14 08:00:00</t>
-        </is>
+        <v>0.2244294139594911</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.05752992311310096</v>
       </c>
     </row>
     <row r="16">
@@ -1828,52 +1828,52 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1576368000000</v>
+        <v>1573776000000</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>141.79000000</t>
+          <t>184.93000000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>144.12000000</t>
+          <t>186.70000000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>139.92000000</t>
+          <t>177.67000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>142.46000000</t>
+          <t>180.00000000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>151189.65877000</t>
+          <t>407466.78964000</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1576454399999</v>
+        <v>1573862399999</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21495196.81888500</t>
+          <t>74217250.17271870</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>77131</v>
+        <v>156868</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>73238.69048000</t>
+          <t>196587.25275000</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10413387.06460380</t>
+          <t>35827558.08033390</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1881,44 +1881,44 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N16" t="n">
-        <v>142.4599999999999</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2019-11-15 08:00:00</t>
+        </is>
       </c>
       <c r="O16" t="n">
-        <v>142.125</v>
+        <v>179.9999999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>144.3214285714285</v>
+        <v>182.4599999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.4206666666667</v>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>142.46</v>
-      </c>
+        <v>185.5642857142857</v>
+      </c>
+      <c r="R16" t="n">
+        <v>185.4813333333334</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>142.5678043510774</v>
+        <v>180</v>
       </c>
       <c r="U16" t="n">
-        <v>144.955885757702</v>
+        <v>181.9414969419968</v>
       </c>
       <c r="V16" t="n">
-        <v>145.7269845549927</v>
+        <v>185.2354989279197</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.7710987972906764</v>
+        <v>185.4598542938921</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.4257420478987187</v>
+        <v>-0.2243553659724569</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.3453567493919578</v>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>2019-12-15 08:00:00</t>
-        </is>
+        <v>0.1313992500713771</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0.355754616043834</v>
       </c>
     </row>
     <row r="17">
@@ -1926,52 +1926,52 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1576454400000</v>
+        <v>1573862400000</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>142.46000000</t>
+          <t>179.99000000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>142.72000000</t>
+          <t>183.46000000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>127.93000000</t>
+          <t>179.30000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>132.73000000</t>
+          <t>182.37000000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>471018.85942000</t>
+          <t>172801.52576000</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1576540799999</v>
+        <v>1573948799999</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>63632055.58494070</t>
+          <t>31378510.01538970</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>153717</v>
+        <v>89596</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>215716.73176000</t>
+          <t>86531.48564000</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>29112565.69520390</t>
+          <t>15713912.23090380</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1979,44 +1979,44 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N17" t="n">
-        <v>132.7299999999999</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2019-11-16 08:00:00</t>
+        </is>
       </c>
       <c r="O17" t="n">
-        <v>137.595</v>
+        <v>182.3699999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>142.2285714285713</v>
+        <v>181.1849999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>145.2206666666667</v>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>132.73</v>
-      </c>
+        <v>185.2042857142858</v>
+      </c>
+      <c r="R17" t="n">
+        <v>185.4493333333334</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>136.0092679646672</v>
+        <v>182.37</v>
       </c>
       <c r="U17" t="n">
-        <v>142.9354617405744</v>
+        <v>182.2271656539685</v>
       </c>
       <c r="V17" t="n">
-        <v>144.3673932028609</v>
+        <v>184.7619526368973</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.431931462286542</v>
+        <v>185.1366301522039</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.6328083284251576</v>
+        <v>-0.37467751530653</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.7991231338613844</v>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>2019-12-16 08:00:00</t>
-        </is>
+        <v>0.02725242446457944</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.4019299397711095</v>
       </c>
     </row>
     <row r="18">
@@ -2024,52 +2024,52 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1576540800000</v>
+        <v>1573948800000</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>132.72000000</t>
+          <t>182.37000000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>132.98000000</t>
+          <t>186.09000000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>119.11000000</t>
+          <t>180.00000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>121.88000000</t>
+          <t>183.82000000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>563257.36001000</t>
+          <t>198892.43720000</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1576627199999</v>
+        <v>1574035199999</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>71709329.26891930</t>
+          <t>36509968.69910130</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>178977</v>
+        <v>93753</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>272414.29784000</t>
+          <t>99564.29673000</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>34693963.88197660</t>
+          <t>18284470.26124200</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2077,44 +2077,44 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N18" t="n">
-        <v>121.8799999999999</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2019-11-17 08:00:00</t>
+        </is>
       </c>
       <c r="O18" t="n">
-        <v>127.305</v>
+        <v>183.8199999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>138.8457142857142</v>
+        <v>183.0949999999999</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.436</v>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>121.88</v>
-      </c>
+        <v>184.47</v>
+      </c>
+      <c r="R18" t="n">
+        <v>185.5100000000001</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="n">
-        <v>126.5897559152822</v>
+        <v>183.82</v>
       </c>
       <c r="U18" t="n">
-        <v>139.4951406923544</v>
+        <v>183.2890552262123</v>
       </c>
       <c r="V18" t="n">
-        <v>142.0847264133076</v>
+        <v>184.6080439018113</v>
       </c>
       <c r="W18" t="n">
-        <v>-2.589585720953181</v>
+        <v>185.0029806937963</v>
       </c>
       <c r="X18" t="n">
-        <v>-1.033179361098551</v>
+        <v>-0.3949367919849749</v>
       </c>
       <c r="Y18" t="n">
-        <v>-1.55640635985463</v>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>2019-12-17 08:00:00</t>
-        </is>
+        <v>-0.05913059141598567</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.3358062005689892</v>
       </c>
     </row>
     <row r="19">
@@ -2122,52 +2122,52 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1576627200000</v>
+        <v>1574035200000</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>121.88000000</t>
+          <t>183.82000000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>134.87000000</t>
+          <t>184.06000000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>116.26000000</t>
+          <t>175.01000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>132.78000000</t>
+          <t>178.20000000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>884960.91334000</t>
+          <t>293551.23632000</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1576713599999</v>
+        <v>1574121599999</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>110566290.56933250</t>
+          <t>52985734.28078390</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>252627</v>
+        <v>131823</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>469544.66440000</t>
+          <t>134230.72271000</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>58667753.46965980</t>
+          <t>24254035.07827020</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2175,44 +2175,44 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N19" t="n">
-        <v>132.7799999999999</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2019-11-18 08:00:00</t>
+        </is>
       </c>
       <c r="O19" t="n">
-        <v>127.33</v>
+        <v>178.1999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>137.3299999999999</v>
+        <v>181.0099999999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.4766666666667</v>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>132.78</v>
-      </c>
+        <v>183.5014285714286</v>
+      </c>
+      <c r="R19" t="n">
+        <v>185.2873333333334</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="n">
-        <v>130.7165853157461</v>
+        <v>178.2</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4083079336947</v>
+        <v>179.8963517333136</v>
       </c>
       <c r="V19" t="n">
-        <v>141.1654358483807</v>
+        <v>183.570914175051</v>
       </c>
       <c r="W19" t="n">
-        <v>-2.757127914686038</v>
+        <v>184.3308581952517</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.384294194344736</v>
+        <v>-0.7599440202006349</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.372833720341302</v>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>2019-12-18 08:00:00</t>
-        </is>
+        <v>-0.2018645434659774</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-0.5580794767346575</v>
       </c>
     </row>
     <row r="20">
@@ -2220,52 +2220,52 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1576713600000</v>
+        <v>1574121600000</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>132.80000000</t>
+          <t>178.20000000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>134.00000000</t>
+          <t>178.52000000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>125.69000000</t>
+          <t>172.65000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>128.10000000</t>
+          <t>175.94000000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>420674.81720000</t>
+          <t>275886.64110000</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1576799999999</v>
+        <v>1574207999999</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>53766864.18518990</t>
+          <t>48414106.95693360</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>154222</v>
+        <v>125824</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>204489.68391000</t>
+          <t>138098.32741000</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>26131287.04042130</t>
+          <t>24234932.99839650</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2273,44 +2273,44 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>128.0999999999999</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2019-11-19 08:00:00</t>
+        </is>
       </c>
       <c r="O20" t="n">
-        <v>130.44</v>
+        <v>175.9399999999999</v>
       </c>
       <c r="P20" t="n">
-        <v>134.9342857142856</v>
+        <v>177.0699999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.3246666666667</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>128.1</v>
-      </c>
+        <v>181.9085714285715</v>
+      </c>
+      <c r="R20" t="n">
+        <v>184.6360000000001</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="n">
-        <v>128.9721951037479</v>
+        <v>175.94</v>
       </c>
       <c r="U20" t="n">
-        <v>136.7531721921705</v>
+        <v>177.2587839088351</v>
       </c>
       <c r="V20" t="n">
-        <v>139.9057387771534</v>
+        <v>182.3456695594584</v>
       </c>
       <c r="W20" t="n">
-        <v>-3.152566584982878</v>
+        <v>183.521858050419</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.743119895817788</v>
+        <v>-1.176188490960556</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.40944668916509</v>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>2019-12-19 08:00:00</t>
-        </is>
+        <v>-0.3995786941662356</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.77660979679432</v>
       </c>
     </row>
     <row r="21">
@@ -2318,52 +2318,52 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1576800000000</v>
+        <v>1574208000000</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>128.10000000</t>
+          <t>175.93000000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>129.39000000</t>
+          <t>177.41000000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>125.84000000</t>
+          <t>173.50000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>128.19000000</t>
+          <t>174.72000000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>213897.46730000</t>
+          <t>216315.93309000</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1576886399999</v>
+        <v>1574294399999</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>27266605.48486420</t>
+          <t>38001672.19309860</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>90922</v>
+        <v>106534</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>109755.28767000</t>
+          <t>105958.65927000</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>13990539.68398590</t>
+          <t>18616351.33195330</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2371,44 +2371,44 @@
           <t>0</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>128.1899999999999</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2019-11-20 08:00:00</t>
+        </is>
       </c>
       <c r="O21" t="n">
-        <v>128.145</v>
+        <v>174.7199999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>132.5614285714285</v>
+        <v>175.3299999999999</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9973333333333</v>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>128.19</v>
-      </c>
+        <v>179.9957142857143</v>
+      </c>
+      <c r="R21" t="n">
+        <v>183.7053333333334</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="n">
-        <v>128.4507317010997</v>
+        <v>174.72</v>
       </c>
       <c r="U21" t="n">
-        <v>135.3874151343507</v>
+        <v>175.5662613024596</v>
       </c>
       <c r="V21" t="n">
-        <v>138.8008555619237</v>
+        <v>181.1294366275837</v>
       </c>
       <c r="W21" t="n">
-        <v>-3.413440427572937</v>
+        <v>182.6917759354347</v>
       </c>
       <c r="X21" t="n">
-        <v>-2.081080421749365</v>
+        <v>-1.562339307851062</v>
       </c>
       <c r="Y21" t="n">
-        <v>-1.332360005823571</v>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>2019-12-20 08:00:00</t>
-        </is>
+        <v>-0.6348432323567127</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0.927496075494349</v>
       </c>
     </row>
     <row r="22">
@@ -2416,97 +2416,3181 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>1574294400000</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>174.75000000</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>175.85000000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>157.26000000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>161.01000000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>473895.92992000</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1574380799999</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>78641896.23038060</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>178521</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>234632.37028000</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>38906646.50159150</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2019-11-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>161.0099999999998</v>
+      </c>
+      <c r="P22" t="n">
+        <v>167.8649999999999</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>176.58</v>
+      </c>
+      <c r="R22" t="n">
+        <v>181.6953333333334</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>161.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>165.8620870998922</v>
+      </c>
+      <c r="V22" t="n">
+        <v>177.9385634138736</v>
+      </c>
+      <c r="W22" t="n">
+        <v>180.6875717848696</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-2.749008370996052</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-1.061612511923929</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-1.687395859072122</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1574380800000</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>161.02000000</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>162.79000000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>138.00000000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>149.56000000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>977977.23794000</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1574467199999</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>147595324.56439290</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>324167</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>460516.29463000</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>69562234.11476300</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2019-11-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>149.5599999999998</v>
+      </c>
+      <c r="P23" t="n">
+        <v>155.2849999999999</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>172.2314285714286</v>
+      </c>
+      <c r="R23" t="n">
+        <v>179.2206666666667</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>149.56</v>
+      </c>
+      <c r="U23" t="n">
+        <v>154.9940290329511</v>
+      </c>
+      <c r="V23" t="n">
+        <v>173.459100414041</v>
+      </c>
+      <c r="W23" t="n">
+        <v>177.8621085949774</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-4.403008180936411</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-1.734859330430195</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-2.668148850506215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1574467200000</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>149.55000000</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>154.33000000</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>146.11000000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>151.84000000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>369721.09960000</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1574553599999</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>55595157.56404240</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>177816</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>188200.09056000</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>28306514.67695320</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2019-11-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>151.8399999999999</v>
+      </c>
+      <c r="P24" t="n">
+        <v>150.6999999999999</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>167.87</v>
+      </c>
+      <c r="R24" t="n">
+        <v>177.0940000000001</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>151.84</v>
+      </c>
+      <c r="U24" t="n">
+        <v>152.8913430109614</v>
+      </c>
+      <c r="V24" t="n">
+        <v>170.0601939728656</v>
+      </c>
+      <c r="W24" t="n">
+        <v>175.5388603018237</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-5.478666328958099</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-2.488066882760487</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-2.990599446197612</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1574553600000</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>151.84000000</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>152.86000000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>138.62000000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>139.96000000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>352319.21558000</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1574639999999</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>51503705.17773920</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>158774</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>169721.62425000</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>24806572.10681470</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2019-11-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>139.9599999999998</v>
+      </c>
+      <c r="P25" t="n">
+        <v>145.8999999999999</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>161.6042857142857</v>
+      </c>
+      <c r="R25" t="n">
+        <v>174.0986666666668</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>139.96</v>
+      </c>
+      <c r="U25" t="n">
+        <v>144.2704476702899</v>
+      </c>
+      <c r="V25" t="n">
+        <v>165.3438108038014</v>
+      </c>
+      <c r="W25" t="n">
+        <v>172.4099643503009</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-7.066153546499521</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-3.408028611943712</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>-3.65812493455581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1574640000000</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>139.99000000</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>151.50000000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>131.45000000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>145.69000000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>749675.41303000</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1574726399999</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>106186791.33716510</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>238649</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>369097.78378000</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>52341190.61922980</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2019-11-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>145.6899999999999</v>
+      </c>
+      <c r="P26" t="n">
+        <v>142.8249999999999</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>156.96</v>
+      </c>
+      <c r="R26" t="n">
+        <v>171.2140000000001</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>145.69</v>
+      </c>
+      <c r="U26" t="n">
+        <v>145.2168158900977</v>
+      </c>
+      <c r="V26" t="n">
+        <v>162.2729970493711</v>
+      </c>
+      <c r="W26" t="n">
+        <v>170.092285057108</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-7.81928800773693</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-4.293626184136141</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-3.525661823600789</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1574726400000</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>145.81000000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>149.97000000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>143.37000000</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>147.47000000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>354023.04298000</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1574812799999</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>51873405.03929090</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>132207</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>172671.00371000</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>25305494.21800260</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2019-11-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>147.4699999999999</v>
+      </c>
+      <c r="P27" t="n">
+        <v>146.5799999999999</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>152.8928571428572</v>
+      </c>
+      <c r="R27" t="n">
+        <v>168.7133333333335</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>147.47</v>
+      </c>
+      <c r="U27" t="n">
+        <v>146.7189386300332</v>
+      </c>
+      <c r="V27" t="n">
+        <v>159.9656351840906</v>
+      </c>
+      <c r="W27" t="n">
+        <v>168.1545789553654</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-8.188943771274808</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-5.075051414406303</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-3.113892356868504</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1574812800000</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>147.47000000</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>155.54000000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>140.84000000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>152.62000000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>564796.42840000</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1574899199999</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>83505998.05488960</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>192325</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>290667.89068000</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>43041430.88305020</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2019-11-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>152.6199999999999</v>
+      </c>
+      <c r="P28" t="n">
+        <v>150.0449999999999</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>149.7357142857143</v>
+      </c>
+      <c r="R28" t="n">
+        <v>166.4153333333334</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>152.62</v>
+      </c>
+      <c r="U28" t="n">
+        <v>150.6529795433449</v>
+      </c>
+      <c r="V28" t="n">
+        <v>158.822975752518</v>
+      </c>
+      <c r="W28" t="n">
+        <v>166.8392014823522</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-8.01622572983419</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-5.664711989279426</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-2.351513740554764</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1574899200000</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>152.61000000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>154.63000000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>149.09000000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>150.72000000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>317714.56326000</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1574985599999</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>48324220.62056190</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>124573</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>158837.00332000</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>24159931.80938630</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2019-11-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>150.7199999999999</v>
+      </c>
+      <c r="P29" t="n">
+        <v>151.6699999999999</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>148.2657142857143</v>
+      </c>
+      <c r="R29" t="n">
+        <v>163.9226666666667</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>150.72</v>
+      </c>
+      <c r="U29" t="n">
+        <v>150.6976598477817</v>
+      </c>
+      <c r="V29" t="n">
+        <v>157.564659102461</v>
+      </c>
+      <c r="W29" t="n">
+        <v>165.4886376826908</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-7.9239785802298</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-6.117441012758738</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-1.806537567471063</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1574985600000</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>150.69000000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>157.60000000</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>150.23000000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>154.57000000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>328712.25558000</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1575071999999</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>50649319.12094730</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>129774</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>171812.20099000</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>26479251.48421680</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2019-11-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>154.5699999999999</v>
+      </c>
+      <c r="P30" t="n">
+        <v>152.6449999999999</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>148.9814285714286</v>
+      </c>
+      <c r="R30" t="n">
+        <v>161.8993333333334</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>154.57</v>
+      </c>
+      <c r="U30" t="n">
+        <v>153.2792199492606</v>
+      </c>
+      <c r="V30" t="n">
+        <v>157.1002872403096</v>
+      </c>
+      <c r="W30" t="n">
+        <v>164.5826077625919</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-7.482320522282265</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-6.390839979072316</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-1.091480543209949</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1575072000000</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>154.54000000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>155.25000000</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>149.70000000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>151.37000000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>226863.41299000</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1575158399999</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>34617912.17868860</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>96632</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>115076.90179000</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>17567465.07492850</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2019-11-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>151.3699999999998</v>
+      </c>
+      <c r="P31" t="n">
+        <v>152.9699999999999</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>148.9142857142858</v>
+      </c>
+      <c r="R31" t="n">
+        <v>159.9906666666667</v>
+      </c>
+      <c r="S31" t="n">
+        <v>172.736</v>
+      </c>
+      <c r="T31" t="n">
+        <v>151.37</v>
+      </c>
+      <c r="U31" t="n">
+        <v>152.0064066497535</v>
+      </c>
+      <c r="V31" t="n">
+        <v>156.2127938033198</v>
+      </c>
+      <c r="W31" t="n">
+        <v>163.495902173792</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-7.283108370472291</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-6.56951484612425</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.7135935243480418</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1575158400000</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>151.43000000</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>152.49000000</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>145.79000000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>150.73000000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>344178.14088000</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1575244799999</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>51148792.08299820</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>125550</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>172849.45417000</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>25693814.94443980</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2019-12-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>150.7299999999998</v>
+      </c>
+      <c r="P32" t="n">
+        <v>151.0499999999999</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>150.4528571428572</v>
+      </c>
+      <c r="R32" t="n">
+        <v>157.8813333333334</v>
+      </c>
+      <c r="S32" t="n">
+        <v>171.6653333333333</v>
+      </c>
+      <c r="T32" t="n">
+        <v>150.73</v>
+      </c>
+      <c r="U32" t="n">
+        <v>151.1554688832512</v>
+      </c>
+      <c r="V32" t="n">
+        <v>155.3645065761956</v>
+      </c>
+      <c r="W32" t="n">
+        <v>162.4544494236136</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-7.089942847417973</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-6.673703629956714</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-0.4162392174612588</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1575244800000</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>150.72000000</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>151.42000000</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>146.71000000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>148.65000000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>233839.09730000</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1575331199999</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>34768563.47186470</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>107070</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>114158.87515000</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>16974888.53770170</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2019-12-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>148.6499999999998</v>
+      </c>
+      <c r="P33" t="n">
+        <v>149.6899999999999</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>150.8757142857143</v>
+      </c>
+      <c r="R33" t="n">
+        <v>155.5366666666667</v>
+      </c>
+      <c r="S33" t="n">
+        <v>170.5233333333333</v>
+      </c>
+      <c r="T33" t="n">
+        <v>148.65</v>
+      </c>
+      <c r="U33" t="n">
+        <v>149.4851562944171</v>
+      </c>
+      <c r="V33" t="n">
+        <v>154.3265561335237</v>
+      </c>
+      <c r="W33" t="n">
+        <v>161.336662082647</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-7.010105949123329</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-6.741037441131381</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-0.2690685079919479</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1575331200000</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>148.66000000</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>149.93000000</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>145.77000000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>147.17000000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>196329.22503000</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1575417599999</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>29061161.10177570</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>87660</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>100293.62450000</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>14844721.32424090</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2019-12-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>147.1699999999998</v>
+      </c>
+      <c r="P34" t="n">
+        <v>147.9099999999999</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>150.8328571428572</v>
+      </c>
+      <c r="R34" t="n">
+        <v>153.4680000000001</v>
+      </c>
+      <c r="S34" t="n">
+        <v>169.3776666666666</v>
+      </c>
+      <c r="T34" t="n">
+        <v>147.17</v>
+      </c>
+      <c r="U34" t="n">
+        <v>147.9417187648057</v>
+      </c>
+      <c r="V34" t="n">
+        <v>153.221087089765</v>
+      </c>
+      <c r="W34" t="n">
+        <v>160.1974049275016</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-6.976317837736588</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-6.78812336470206</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.1881944730345273</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1575417600000</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>147.19000000</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>151.98000000</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>143.15000000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>145.38000000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>434430.62379000</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1575503999999</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>63840615.24391760</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>149648</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>211404.51257000</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>31089708.18797030</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2019-12-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>145.3799999999997</v>
+      </c>
+      <c r="P35" t="n">
+        <v>146.2749999999999</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>149.7985714285715</v>
+      </c>
+      <c r="R35" t="n">
+        <v>151.4306666666668</v>
+      </c>
+      <c r="S35" t="n">
+        <v>168.0333333333333</v>
+      </c>
+      <c r="T35" t="n">
+        <v>145.38</v>
+      </c>
+      <c r="U35" t="n">
+        <v>146.2339062549352</v>
+      </c>
+      <c r="V35" t="n">
+        <v>152.0106333787462</v>
+      </c>
+      <c r="W35" t="n">
+        <v>159.0133281247987</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-7.002694746052526</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-6.831059412134674</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.1716353339178527</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1575504000000</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>145.45000000</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>149.02000000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>143.64000000</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>148.10000000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>299073.53972000</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1575590399999</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>43777241.59082360</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>111694</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>159810.68936000</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>23382484.67691740</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2019-12-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>148.0999999999997</v>
+      </c>
+      <c r="P36" t="n">
+        <v>146.74</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>149.4242857142858</v>
+      </c>
+      <c r="R36" t="n">
+        <v>149.6560000000001</v>
+      </c>
+      <c r="S36" t="n">
+        <v>166.6806666666666</v>
+      </c>
+      <c r="T36" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>147.4779687516451</v>
+      </c>
+      <c r="V36" t="n">
+        <v>151.4072543962974</v>
+      </c>
+      <c r="W36" t="n">
+        <v>158.1462918467157</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-6.739037450418294</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-6.812647551053238</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.07361010063494344</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1575590400000</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>148.11000000</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>149.77000000</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>145.74000000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>148.45000000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>220674.68581000</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1575676799999</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>32549526.39959790</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>90076</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>118938.06254000</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>17547902.32235480</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2019-12-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>148.4499999999997</v>
+      </c>
+      <c r="P37" t="n">
+        <v>148.2749999999999</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>148.5500000000001</v>
+      </c>
+      <c r="R37" t="n">
+        <v>148.8186666666668</v>
+      </c>
+      <c r="S37" t="n">
+        <v>165.257</v>
+      </c>
+      <c r="T37" t="n">
+        <v>148.45</v>
+      </c>
+      <c r="U37" t="n">
+        <v>148.1259895838817</v>
+      </c>
+      <c r="V37" t="n">
+        <v>150.9511773372017</v>
+      </c>
+      <c r="W37" t="n">
+        <v>157.3800632657785</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-6.428885928576818</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-6.735870310919033</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.3069843823422147</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1575676800000</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>148.46000000</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>149.49000000</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>146.85000000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>147.14000000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>140471.68588000</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1575763199999</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>20799551.34569560</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>70677</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>73739.81386000</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>10919841.57771310</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2019-12-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>147.1399999999997</v>
+      </c>
+      <c r="P38" t="n">
+        <v>147.795</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>147.9457142857144</v>
+      </c>
+      <c r="R38" t="n">
+        <v>148.6573333333334</v>
+      </c>
+      <c r="S38" t="n">
+        <v>163.939</v>
+      </c>
+      <c r="T38" t="n">
+        <v>147.14</v>
+      </c>
+      <c r="U38" t="n">
+        <v>147.4686631946272</v>
+      </c>
+      <c r="V38" t="n">
+        <v>150.3636270991174</v>
+      </c>
+      <c r="W38" t="n">
+        <v>156.5748491408852</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-6.211222041767883</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-6.630913408719125</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.4196913669512421</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1575763200000</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>147.16000000</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>151.62000000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>146.11000000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>150.44000000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>205301.60260000</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1575849599999</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>30606289.28539150</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>79766</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>113946.96048000</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>16985317.52759580</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2019-12-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>150.4399999999997</v>
+      </c>
+      <c r="P39" t="n">
+        <v>148.79</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>147.9042857142858</v>
+      </c>
+      <c r="R39" t="n">
+        <v>148.5640000000001</v>
+      </c>
+      <c r="S39" t="n">
+        <v>162.829</v>
+      </c>
+      <c r="T39" t="n">
+        <v>150.44</v>
+      </c>
+      <c r="U39" t="n">
+        <v>149.4495543982091</v>
+      </c>
+      <c r="V39" t="n">
+        <v>150.3753973758966</v>
+      </c>
+      <c r="W39" t="n">
+        <v>156.0946328264768</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-5.719235450580214</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-6.448539939603712</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.7293044890234981</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1575849600000</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>150.44000000</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>151.19000000</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>146.56000000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>147.38000000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>243775.99249000</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1575935999999</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>36345702.34808850</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>92204</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>113225.94088000</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>16892414.52102660</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2019-12-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>147.3799999999997</v>
+      </c>
+      <c r="P40" t="n">
+        <v>148.91</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>147.7228571428573</v>
+      </c>
+      <c r="R40" t="n">
+        <v>149.0586666666668</v>
+      </c>
+      <c r="S40" t="n">
+        <v>161.5786666666666</v>
+      </c>
+      <c r="T40" t="n">
+        <v>147.38</v>
+      </c>
+      <c r="U40" t="n">
+        <v>148.0698514660697</v>
+      </c>
+      <c r="V40" t="n">
+        <v>149.9138835573171</v>
+      </c>
+      <c r="W40" t="n">
+        <v>155.4153342202174</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-5.501450662900339</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-6.259090606593385</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7576399436930457</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1575936000000</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>147.40000000</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>148.57000000</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>143.81000000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>145.56000000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>203215.84937000</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1576022399999</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>29746845.43242870</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>85725</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>96914.54456000</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>14189982.05386240</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2019-12-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>145.5599999999997</v>
+      </c>
+      <c r="P41" t="n">
+        <v>146.47</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>147.4928571428572</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.0500000000001</v>
+      </c>
+      <c r="S41" t="n">
+        <v>160.132</v>
+      </c>
+      <c r="T41" t="n">
+        <v>145.56</v>
+      </c>
+      <c r="U41" t="n">
+        <v>146.3966171553566</v>
+      </c>
+      <c r="V41" t="n">
+        <v>149.2432149268951</v>
+      </c>
+      <c r="W41" t="n">
+        <v>154.6500842948936</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-5.406869367998524</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-6.088623699935944</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.6817543319374195</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1576022400000</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>145.53000000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>146.34000000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>142.12000000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>143.39000000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>157843.10484000</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1576108799999</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>22772651.16812890</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>69834</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>82484.40373000</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>11897456.58801180</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2019-12-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>143.3899999999997</v>
+      </c>
+      <c r="P42" t="n">
+        <v>144.475</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>147.2085714285715</v>
+      </c>
+      <c r="R42" t="n">
+        <v>148.7780000000001</v>
+      </c>
+      <c r="S42" t="n">
+        <v>158.7456666666667</v>
+      </c>
+      <c r="T42" t="n">
+        <v>143.39</v>
+      </c>
+      <c r="U42" t="n">
+        <v>144.3922057184522</v>
+      </c>
+      <c r="V42" t="n">
+        <v>148.3417645283567</v>
+      </c>
+      <c r="W42" t="n">
+        <v>153.7788718257752</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-5.437107297418549</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-5.958306561737391</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.5211992643188417</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1576108800000</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>143.41000000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>145.85000000</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>139.24000000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>144.87000000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>261615.30437000</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1576195199999</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>37425277.03812350</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>99231</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>127845.69433000</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>18297930.21017830</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2019-12-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>144.8699999999997</v>
+      </c>
+      <c r="P43" t="n">
+        <v>144.13</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>146.7471428571429</v>
+      </c>
+      <c r="R43" t="n">
+        <v>148.2613333333334</v>
+      </c>
+      <c r="S43" t="n">
+        <v>157.3383333333333</v>
+      </c>
+      <c r="T43" t="n">
+        <v>144.87</v>
+      </c>
+      <c r="U43" t="n">
+        <v>144.7107352394841</v>
+      </c>
+      <c r="V43" t="n">
+        <v>147.8071672870542</v>
+      </c>
+      <c r="W43" t="n">
+        <v>153.091842391792</v>
+      </c>
+      <c r="X43" t="n">
+        <v>-5.284675104737829</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-5.82356880811705</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.5388937033792205</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1576195200000</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>144.87000000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>146.00000000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>142.80000000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>144.80000000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>160695.18556000</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1576281599999</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>23203419.96161870</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>90805</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>82252.75063000</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>11879184.41045830</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2019-12-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>144.7999999999997</v>
+      </c>
+      <c r="P44" t="n">
+        <v>144.835</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>146.2257142857143</v>
+      </c>
+      <c r="R44" t="n">
+        <v>147.8666666666668</v>
+      </c>
+      <c r="S44" t="n">
+        <v>155.8946666666667</v>
+      </c>
+      <c r="T44" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="U44" t="n">
+        <v>144.770245079828</v>
+      </c>
+      <c r="V44" t="n">
+        <v>147.3441746902245</v>
+      </c>
+      <c r="W44" t="n">
+        <v>152.4543368571899</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-5.110162166965353</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-5.680877768837793</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.5707156018724406</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1576281600000</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>144.80000000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>145.07000000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>141.18000000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>141.79000000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>126232.59201000</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1576367999999</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>18027581.35954590</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>76951</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>59729.52052000</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>8537450.10787950</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2019-12-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>141.7899999999997</v>
+      </c>
+      <c r="P45" t="n">
+        <v>143.295</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>145.4614285714286</v>
+      </c>
+      <c r="R45" t="n">
+        <v>147.0146666666668</v>
+      </c>
+      <c r="S45" t="n">
+        <v>154.457</v>
+      </c>
+      <c r="T45" t="n">
+        <v>141.79</v>
+      </c>
+      <c r="U45" t="n">
+        <v>142.7834150266093</v>
+      </c>
+      <c r="V45" t="n">
+        <v>146.4891370442816</v>
+      </c>
+      <c r="W45" t="n">
+        <v>151.6367227325442</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-5.147585688262637</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-5.574213545370053</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.426627857107416</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1576368000000</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>141.79000000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>144.12000000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>139.92000000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>142.46000000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>151189.65877000</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1576454399999</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>21495196.81888500</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>77131</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>73238.69048000</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>10413387.06460380</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2019-12-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>142.4599999999997</v>
+      </c>
+      <c r="P46" t="n">
+        <v>142.125</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>144.3214285714286</v>
+      </c>
+      <c r="R46" t="n">
+        <v>146.4206666666668</v>
+      </c>
+      <c r="S46" t="n">
+        <v>153.2056666666667</v>
+      </c>
+      <c r="T46" t="n">
+        <v>142.46</v>
+      </c>
+      <c r="U46" t="n">
+        <v>142.5678050088698</v>
+      </c>
+      <c r="V46" t="n">
+        <v>145.8689327097868</v>
+      </c>
+      <c r="W46" t="n">
+        <v>150.9349814258254</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-5.066048716038637</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-5.47257615257096</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.4065274365323228</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1576454400000</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>142.46000000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>142.72000000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>127.93000000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>132.73000000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>471018.85942000</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1576540799999</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>63632055.58494070</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>153717</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>215716.73176000</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>29112565.69520390</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2019-12-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>132.7299999999996</v>
+      </c>
+      <c r="P47" t="n">
+        <v>137.595</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>142.2285714285715</v>
+      </c>
+      <c r="R47" t="n">
+        <v>145.2206666666668</v>
+      </c>
+      <c r="S47" t="n">
+        <v>151.551</v>
+      </c>
+      <c r="T47" t="n">
+        <v>132.73</v>
+      </c>
+      <c r="U47" t="n">
+        <v>136.0092683362899</v>
+      </c>
+      <c r="V47" t="n">
+        <v>143.8466283763412</v>
+      </c>
+      <c r="W47" t="n">
+        <v>149.546178876449</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-5.699550500107819</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-5.517972603913791</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-0.1815778961940273</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1576540800000</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>132.72000000</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>132.98000000</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>119.11000000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>121.88000000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>563257.36001000</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1576627199999</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>71709329.26891930</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>178977</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>272414.29784000</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>34693963.88197660</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2019-12-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>121.8799999999997</v>
+      </c>
+      <c r="P48" t="n">
+        <v>127.305</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>138.8457142857143</v>
+      </c>
+      <c r="R48" t="n">
+        <v>143.4360000000001</v>
+      </c>
+      <c r="S48" t="n">
+        <v>149.4863333333333</v>
+      </c>
+      <c r="T48" t="n">
+        <v>121.88</v>
+      </c>
+      <c r="U48" t="n">
+        <v>126.5897561120966</v>
+      </c>
+      <c r="V48" t="n">
+        <v>140.4658314456728</v>
+      </c>
+      <c r="W48" t="n">
+        <v>147.4402705272998</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-6.974439081627082</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-5.809274019754763</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-1.16516506187232</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1576627200000</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>121.88000000</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>134.87000000</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>116.26000000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>132.78000000</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>884960.91334000</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1576713599999</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>110566290.56933250</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>252627</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>469544.66440000</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>58667753.46965980</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2019-12-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>132.7799999999997</v>
+      </c>
+      <c r="P49" t="n">
+        <v>127.33</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>137.33</v>
+      </c>
+      <c r="R49" t="n">
+        <v>142.4766666666668</v>
+      </c>
+      <c r="S49" t="n">
+        <v>147.9723333333333</v>
+      </c>
+      <c r="T49" t="n">
+        <v>132.78</v>
+      </c>
+      <c r="U49" t="n">
+        <v>130.7165853706989</v>
+      </c>
+      <c r="V49" t="n">
+        <v>139.2830063556475</v>
+      </c>
+      <c r="W49" t="n">
+        <v>146.3266293291682</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-7.043622973520684</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-6.056149316011024</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.9874736575096597</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1576713600000</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>132.80000000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>134.00000000</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>125.69000000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>128.10000000</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>420674.81720000</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1576799999999</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>53766864.18518990</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>154222</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>204489.68391000</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>26131287.04042130</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2019-12-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>128.0999999999997</v>
+      </c>
+      <c r="P50" t="n">
+        <v>130.44</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>134.9342857142857</v>
+      </c>
+      <c r="R50" t="n">
+        <v>141.3246666666668</v>
+      </c>
+      <c r="S50" t="n">
+        <v>146.3776666666667</v>
+      </c>
+      <c r="T50" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>128.9721951235663</v>
+      </c>
+      <c r="V50" t="n">
+        <v>137.5620643449866</v>
+      </c>
+      <c r="W50" t="n">
+        <v>144.9446867473916</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-7.382622402405048</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-6.321448666388401</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-1.061173736016647</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1576800000000</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>128.10000000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>129.39000000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>125.84000000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>128.19000000</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>213897.46730000</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1576886399999</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>27266605.48486420</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>90922</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>109755.28767000</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>13990539.68398590</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2019-12-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>128.1899999999996</v>
+      </c>
+      <c r="P51" t="n">
+        <v>128.145</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>132.5614285714286</v>
+      </c>
+      <c r="R51" t="n">
+        <v>139.9973333333334</v>
+      </c>
+      <c r="S51" t="n">
+        <v>144.8266666666667</v>
+      </c>
+      <c r="T51" t="n">
+        <v>128.19</v>
+      </c>
+      <c r="U51" t="n">
+        <v>128.4507317078554</v>
+      </c>
+      <c r="V51" t="n">
+        <v>136.1198682824927</v>
+      </c>
+      <c r="W51" t="n">
+        <v>143.6765608378228</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-7.556692555330045</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-6.568500970225035</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.9881915851050103</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>1576886400000</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>128.19000000</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>128.40000000</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>126.50000000</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>127.18000000</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>117174.26783000</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>126.99000000</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>135196.11641000</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>1576972799999</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>14909067.13294150</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>52615</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>56214.06181000</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>7152469.37395310</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>17199278.79468420</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>64847</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>64958.50230000</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>8263790.32827360</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N22" t="n">
-        <v>127.1799999999999</v>
-      </c>
-      <c r="O22" t="n">
-        <v>127.685</v>
-      </c>
-      <c r="P22" t="n">
-        <v>130.4742857142856</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>138.5793333333333</v>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
-        <v>127.18</v>
-      </c>
-      <c r="T22" t="n">
-        <v>127.6035772336189</v>
-      </c>
-      <c r="U22" t="n">
-        <v>134.0857474191577</v>
-      </c>
-      <c r="V22" t="n">
-        <v>137.7266554124672</v>
-      </c>
-      <c r="W22" t="n">
-        <v>-3.640907993309554</v>
-      </c>
-      <c r="X22" t="n">
-        <v>-2.395950096212096</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>-1.244957897097458</v>
-      </c>
-      <c r="Z22" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>2019-12-21 08:00:00</t>
         </is>
+      </c>
+      <c r="O52" t="n">
+        <v>126.9899999999996</v>
+      </c>
+      <c r="P52" t="n">
+        <v>127.59</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>130.4471428571429</v>
+      </c>
+      <c r="R52" t="n">
+        <v>138.5666666666668</v>
+      </c>
+      <c r="S52" t="n">
+        <v>143.6926666666667</v>
+      </c>
+      <c r="T52" t="n">
+        <v>126.99</v>
+      </c>
+      <c r="U52" t="n">
+        <v>127.4769105692852</v>
+      </c>
+      <c r="V52" t="n">
+        <v>134.7149929068471</v>
+      </c>
+      <c r="W52" t="n">
+        <v>142.4156260736318</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-7.700633166784684</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-6.794929994899388</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.9057031718852953</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1576972800000</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>127.00000000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>130.99000000</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>126.82000000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>129.36000000</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>83453.70338000</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1577059199999</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>10724804.48852170</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>31231</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>40265.04165000</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>5176869.03160470</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2019-12-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>129.3599999999996</v>
+      </c>
+      <c r="P53" t="n">
+        <v>128.175</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>128.5757142857143</v>
+      </c>
+      <c r="R53" t="n">
+        <v>137.3813333333335</v>
+      </c>
+      <c r="S53" t="n">
+        <v>143.0193333333333</v>
+      </c>
+      <c r="T53" t="n">
+        <v>129.36</v>
+      </c>
+      <c r="U53" t="n">
+        <v>128.7323035230951</v>
+      </c>
+      <c r="V53" t="n">
+        <v>133.8910087580157</v>
+      </c>
+      <c r="W53" t="n">
+        <v>141.4305356843143</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-7.539526926298635</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-6.943850741478705</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-0.5956761848199292</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1629,17 +1629,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>130.87000000</t>
+          <t>126.00000000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>133.25000000</t>
+          <t>127.80000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>245657.75029000</t>
+          <t>421600.75655000</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1647,20 +1647,20 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>32680918.14505240</t>
+          <t>55501305.92012300</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>86685</v>
+        <v>145867</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>113741.05451000</t>
+          <t>194731.21180000</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>15133465.86360570</t>
+          <t>25638865.78568890</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1669,36 +1669,486 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>133.2499999999999</v>
+        <v>127.7999999999999</v>
       </c>
       <c r="N15" t="n">
-        <v>132.67</v>
+        <v>129.9450000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>129.04</v>
+        <v>128.2614285714286</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>133.25</v>
+        <v>127.8</v>
       </c>
       <c r="S15" t="n">
-        <v>132.3507645545611</v>
+        <v>128.7174304615879</v>
       </c>
       <c r="T15" t="n">
-        <v>132.4673963041822</v>
+        <v>131.5394353129163</v>
       </c>
       <c r="U15" t="n">
-        <v>133.9354477793955</v>
+        <v>133.3233479202179</v>
       </c>
       <c r="V15" t="n">
-        <v>-1.468051475213286</v>
+        <v>-1.783912607301687</v>
       </c>
       <c r="W15" t="n">
-        <v>-1.398837152580375</v>
+        <v>-1.464915537082233</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.06921432263291183</v>
+        <v>-0.3189970702194544</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>127.80000000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>129.69000000</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>126.61000000</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>127.75000000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>200637.10098000</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1577231999999</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>25667665.14201030</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>87657</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100608.48356000</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>12872420.08887930</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2019-12-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>127.7499999999999</v>
+      </c>
+      <c r="N16" t="n">
+        <v>127.775</v>
+      </c>
+      <c r="O16" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>134.7453333333333</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>127.75</v>
+      </c>
+      <c r="S16" t="n">
+        <v>128.0724767755814</v>
+      </c>
+      <c r="T16" t="n">
+        <v>130.9046400251341</v>
+      </c>
+      <c r="U16" t="n">
+        <v>132.720448196802</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-1.815808171667896</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-1.537653296387676</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-0.2781548752802205</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>127.70000000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>127.84000000</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>123.07000000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>125.09000000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>225004.49090000</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1577318399999</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>28144469.16072900</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>93397</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>98563.14610000</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>12331982.19518460</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2019-12-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>125.0899999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>126.42</v>
+      </c>
+      <c r="O17" t="n">
+        <v>128.0014285714286</v>
+      </c>
+      <c r="P17" t="n">
+        <v>133.3806666666667</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>125.09</v>
+      </c>
+      <c r="S17" t="n">
+        <v>126.084158879004</v>
+      </c>
+      <c r="T17" t="n">
+        <v>129.9437249151322</v>
+      </c>
+      <c r="U17" t="n">
+        <v>131.9222406327808</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-1.978515717648605</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-1.628379496135982</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.3501362215126234</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>125.09000000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>132.26000000</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>124.32000000</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>125.58000000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>274986.52097000</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1577404799999</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>34943780.90920390</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>103034</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>128410.01213000</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>16332907.92974440</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2019-12-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>125.5799999999999</v>
+      </c>
+      <c r="N18" t="n">
+        <v>125.335</v>
+      </c>
+      <c r="O18" t="n">
+        <v>127.6414285714286</v>
+      </c>
+      <c r="P18" t="n">
+        <v>132.1933333333333</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>125.58</v>
+      </c>
+      <c r="S18" t="n">
+        <v>125.7480529570654</v>
+      </c>
+      <c r="T18" t="n">
+        <v>129.2307215690578</v>
+      </c>
+      <c r="U18" t="n">
+        <v>131.2784478225959</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-2.047726253538031</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-1.714180924009384</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.3335453295286464</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>125.58000000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>127.10000000</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>121.91000000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>126.29000000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>240012.37451000</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1577491199999</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>30020098.88913110</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>102142</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>115839.00216000</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>14500702.34866460</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2019-12-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>126.2899999999999</v>
+      </c>
+      <c r="N19" t="n">
+        <v>125.935</v>
+      </c>
+      <c r="O19" t="n">
+        <v>127.37</v>
+      </c>
+      <c r="P19" t="n">
+        <v>130.9546666666667</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>126.29</v>
+      </c>
+      <c r="S19" t="n">
+        <v>126.109350986621</v>
+      </c>
+      <c r="T19" t="n">
+        <v>128.7547713720667</v>
+      </c>
+      <c r="U19" t="n">
+        <v>130.7855979726117</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-2.030826600544998</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-1.778671824090809</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-0.2521547764541889</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>126.28000000</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>128.59000000</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>125.84000000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>127.28000000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>77413.69234000</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1577577599999</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>9862089.16080160</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>34300</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>39247.83833000</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5001388.97613230</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2019-12-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>127.2799999999999</v>
+      </c>
+      <c r="N20" t="n">
+        <v>126.7850000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>127.4114285714286</v>
+      </c>
+      <c r="P20" t="n">
+        <v>129.7866666666667</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>127.28</v>
+      </c>
+      <c r="S20" t="n">
+        <v>126.8897836628785</v>
+      </c>
+      <c r="T20" t="n">
+        <v>128.5179772421101</v>
+      </c>
+      <c r="U20" t="n">
+        <v>130.4476076024285</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-1.929630360318413</v>
+      </c>
+      <c r="W20" t="n">
+        <v>-1.809305001955259</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-0.1203253583631536</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -2082,12 +2082,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>127.28000000</t>
+          <t>127.19000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>77413.69234000</t>
+          <t>84488.07392000</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2095,20 +2095,20 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9862089.16080160</t>
+          <t>10762496.22348290</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>34300</v>
+        <v>37823</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>39247.83833000</t>
+          <t>43243.29299000</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5001388.97613230</t>
+          <t>5510042.32479330</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2117,38 +2117,38 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>127.2799999999999</v>
+        <v>127.1899999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>126.7850000000001</v>
+        <v>126.74</v>
       </c>
       <c r="O20" t="n">
-        <v>127.4114285714286</v>
+        <v>127.3985714285714</v>
       </c>
       <c r="P20" t="n">
-        <v>129.7866666666667</v>
+        <v>129.7806666666667</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>127.28</v>
+        <v>127.19</v>
       </c>
       <c r="S20" t="n">
-        <v>126.8897836628785</v>
+        <v>126.8297836628268</v>
       </c>
       <c r="T20" t="n">
-        <v>128.5179772421101</v>
+        <v>128.5035265468364</v>
       </c>
       <c r="U20" t="n">
-        <v>130.4476076024285</v>
+        <v>130.4389303001382</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.929630360318413</v>
+        <v>-1.935403753301813</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.809305001955259</v>
+        <v>-1.810476564548283</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.1203253583631536</v>
+        <v>-0.1249271887535299</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -2082,12 +2082,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>127.19000000</t>
+          <t>127.12000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>84488.07392000</t>
+          <t>84693.74392000</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2095,20 +2095,20 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10762496.22348290</t>
+          <t>10788650.59353520</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>37823</v>
+        <v>37982</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>43243.29299000</t>
+          <t>43316.73631000</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5510042.32479330</t>
+          <t>5519382.19591250</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2117,38 +2117,38 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>127.1899999999999</v>
+        <v>127.1199999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>126.74</v>
+        <v>126.7050000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>127.3985714285714</v>
+        <v>127.3885714285714</v>
       </c>
       <c r="P20" t="n">
-        <v>129.7806666666667</v>
+        <v>129.776</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>127.19</v>
+        <v>127.12</v>
       </c>
       <c r="S20" t="n">
-        <v>126.8297836628268</v>
+        <v>126.78311699612</v>
       </c>
       <c r="T20" t="n">
-        <v>128.5035265468364</v>
+        <v>128.4922871171791</v>
       </c>
       <c r="U20" t="n">
-        <v>130.4389303001382</v>
+        <v>130.4321812872458</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.935403753301813</v>
+        <v>-1.939894170066708</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.810476564548283</v>
+        <v>-1.811387779898418</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.1249271887535299</v>
+        <v>-0.1285063901682899</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -2082,12 +2082,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>127.12000000</t>
+          <t>127.23000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>84693.74392000</t>
+          <t>84908.25478000</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2095,20 +2095,20 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10788650.59353520</t>
+          <t>10815937.03831150</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>37982</v>
+        <v>38093</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>43316.73631000</t>
+          <t>43406.18735000</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5519382.19591250</t>
+          <t>5530760.90895620</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2117,38 +2117,38 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>127.1199999999999</v>
+        <v>127.2299999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>126.7050000000001</v>
+        <v>126.76</v>
       </c>
       <c r="O20" t="n">
-        <v>127.3885714285714</v>
+        <v>127.4042857142857</v>
       </c>
       <c r="P20" t="n">
-        <v>129.776</v>
+        <v>129.7833333333334</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>127.12</v>
+        <v>127.23</v>
       </c>
       <c r="S20" t="n">
-        <v>126.78311699612</v>
+        <v>126.8564503295165</v>
       </c>
       <c r="T20" t="n">
-        <v>128.4922871171791</v>
+        <v>128.5099490780692</v>
       </c>
       <c r="U20" t="n">
-        <v>130.4321812872458</v>
+        <v>130.4427868789339</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.939894170066708</v>
+        <v>-1.932837800864746</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.811387779898418</v>
+        <v>-1.809955870062495</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.1285063901682899</v>
+        <v>-0.1228819308022515</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -2082,12 +2082,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>127.23000000</t>
+          <t>127.24000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>84908.25478000</t>
+          <t>84986.85020000</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2095,20 +2095,20 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10815937.03831150</t>
+          <t>10825933.45785530</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>38093</v>
+        <v>38188</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>43406.18735000</t>
+          <t>43438.08967000</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5530760.90895620</t>
+          <t>5534819.02770030</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2117,38 +2117,38 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>127.2299999999999</v>
+        <v>127.2399999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>126.76</v>
+        <v>126.765</v>
       </c>
       <c r="O20" t="n">
-        <v>127.4042857142857</v>
+        <v>127.4057142857143</v>
       </c>
       <c r="P20" t="n">
-        <v>129.7833333333334</v>
+        <v>129.784</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>127.23</v>
+        <v>127.24</v>
       </c>
       <c r="S20" t="n">
-        <v>126.8564503295165</v>
+        <v>126.8631169961889</v>
       </c>
       <c r="T20" t="n">
-        <v>128.5099490780692</v>
+        <v>128.5115547108773</v>
       </c>
       <c r="U20" t="n">
-        <v>130.4427868789339</v>
+        <v>130.4437510236328</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.932837800864746</v>
+        <v>-1.93219631275548</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.809955870062495</v>
+        <v>-1.809825696441048</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.1228819308022515</v>
+        <v>-0.122370616314432</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -2082,12 +2082,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>127.24000000</t>
+          <t>127.42000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>84986.85020000</t>
+          <t>85596.04072000</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2095,20 +2095,20 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>10825933.45785530</t>
+          <t>10903507.61611180</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>38188</v>
+        <v>38744</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>43438.08967000</t>
+          <t>43752.55114000</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5534819.02770030</t>
+          <t>5574866.68277130</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2117,38 +2117,38 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>127.2399999999999</v>
+        <v>127.4199999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>126.765</v>
+        <v>126.855</v>
       </c>
       <c r="O20" t="n">
-        <v>127.4057142857143</v>
+        <v>127.4314285714286</v>
       </c>
       <c r="P20" t="n">
-        <v>129.784</v>
+        <v>129.796</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>127.24</v>
+        <v>127.42</v>
       </c>
       <c r="S20" t="n">
-        <v>126.8631169961889</v>
+        <v>126.9831169962921</v>
       </c>
       <c r="T20" t="n">
-        <v>128.5115547108773</v>
+        <v>128.5404561014247</v>
       </c>
       <c r="U20" t="n">
-        <v>130.4437510236328</v>
+        <v>130.4611056282133</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.93219631275548</v>
+        <v>-1.920649526788651</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.809825696441048</v>
+        <v>-1.807482571254994</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.122370616314432</v>
+        <v>-0.1131669555336565</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -504,12 +504,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>128.15000000</t>
+          <t>128.20000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>44548.67679000</t>
+          <t>44560.50574000</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -517,20 +517,20 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5707923.32374280</t>
+          <t>5709439.42501910</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>22594</v>
+        <v>22611</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21717.21714000</t>
+          <t>21721.68202000</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2782400.50389010</t>
+          <t>2782972.72016410</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -539,23 +539,23 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>128.15</v>
+        <v>128.2</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>128.15</v>
+        <v>128.2</v>
       </c>
       <c r="S2" t="n">
-        <v>128.15</v>
+        <v>128.2</v>
       </c>
       <c r="T2" t="n">
-        <v>128.15</v>
+        <v>128.2</v>
       </c>
       <c r="U2" t="n">
-        <v>128.15</v>
+        <v>128.2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -79892,12 +79892,12 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>128.40000000</t>
+          <t>128.38000000</t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>50706.12794000</t>
+          <t>50716.25614000</t>
         </is>
       </c>
       <c r="G866" t="n">
@@ -79905,20 +79905,20 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>6497705.56211640</t>
+          <t>6499005.89037800</t>
         </is>
       </c>
       <c r="I866" t="n">
-        <v>25421</v>
+        <v>25443</v>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>24599.67506000</t>
+          <t>24604.18338000</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>3152026.04683560</t>
+          <t>3152604.85488250</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -79927,40 +79927,40 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>128.3999999999992</v>
+        <v>128.3799999999992</v>
       </c>
       <c r="N866" t="n">
-        <v>128.2550000000003</v>
+        <v>128.2450000000002</v>
       </c>
       <c r="O866" t="n">
-        <v>127.002857142856</v>
+        <v>126.9999999999988</v>
       </c>
       <c r="P866" t="n">
-        <v>128.9493333333337</v>
+        <v>128.9480000000003</v>
       </c>
       <c r="Q866" t="n">
-        <v>137.9820000000003</v>
+        <v>137.9813333333336</v>
       </c>
       <c r="R866" t="n">
-        <v>128.4</v>
+        <v>128.38</v>
       </c>
       <c r="S866" t="n">
-        <v>128.0810390048117</v>
+        <v>128.0677056714783</v>
       </c>
       <c r="T866" t="n">
-        <v>129.366831608848</v>
+        <v>129.3637546857711</v>
       </c>
       <c r="U866" t="n">
-        <v>135.9646185085518</v>
+        <v>135.9631370270703</v>
       </c>
       <c r="V866" t="n">
-        <v>-6.597786899703777</v>
+        <v>-6.599382341299219</v>
       </c>
       <c r="W866" t="n">
-        <v>-7.365345204108266</v>
+        <v>-7.365664292427354</v>
       </c>
       <c r="X866" t="n">
-        <v>0.7675583044044885</v>
+        <v>0.7662819511281356</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -79892,12 +79892,12 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>128.38000000</t>
+          <t>128.30000000</t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>50716.25614000</t>
+          <t>51156.56681000</t>
         </is>
       </c>
       <c r="G866" t="n">
@@ -79905,20 +79905,20 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>6499005.89037800</t>
+          <t>6555532.51073730</t>
         </is>
       </c>
       <c r="I866" t="n">
-        <v>25443</v>
+        <v>25673</v>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>24604.18338000</t>
+          <t>24733.77306000</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>3152604.85488250</t>
+          <t>3169244.28219340</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -79927,40 +79927,40 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>128.3799999999992</v>
+        <v>128.2999999999992</v>
       </c>
       <c r="N866" t="n">
-        <v>128.2450000000002</v>
+        <v>128.2050000000002</v>
       </c>
       <c r="O866" t="n">
-        <v>126.9999999999988</v>
+        <v>126.9885714285703</v>
       </c>
       <c r="P866" t="n">
-        <v>128.9480000000003</v>
+        <v>128.942666666667</v>
       </c>
       <c r="Q866" t="n">
-        <v>137.9813333333336</v>
+        <v>137.9786666666669</v>
       </c>
       <c r="R866" t="n">
-        <v>128.38</v>
+        <v>128.3</v>
       </c>
       <c r="S866" t="n">
-        <v>128.0677056714783</v>
+        <v>128.014372338145</v>
       </c>
       <c r="T866" t="n">
-        <v>129.3637546857711</v>
+        <v>129.3514469934634</v>
       </c>
       <c r="U866" t="n">
-        <v>135.9631370270703</v>
+        <v>135.9572111011443</v>
       </c>
       <c r="V866" t="n">
-        <v>-6.599382341299219</v>
+        <v>-6.605764107680983</v>
       </c>
       <c r="W866" t="n">
-        <v>-7.365664292427354</v>
+        <v>-7.366940645703707</v>
       </c>
       <c r="X866" t="n">
-        <v>0.7662819511281356</v>
+        <v>0.761176538022724</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -79882,7 +79882,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>128.90000000</t>
+          <t>131.93000000</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
@@ -79892,12 +79892,12 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>128.30000000</t>
+          <t>131.81000000</t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>51156.56681000</t>
+          <t>128183.15096000</t>
         </is>
       </c>
       <c r="G866" t="n">
@@ -79905,20 +79905,20 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>6555532.51073730</t>
+          <t>16605614.21490530</t>
         </is>
       </c>
       <c r="I866" t="n">
-        <v>25673</v>
+        <v>54010</v>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>24733.77306000</t>
+          <t>63790.45804000</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>3169244.28219340</t>
+          <t>8265696.86369070</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -79927,40 +79927,40 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>128.2999999999992</v>
+        <v>131.8099999999992</v>
       </c>
       <c r="N866" t="n">
-        <v>128.2050000000002</v>
+        <v>129.9600000000002</v>
       </c>
       <c r="O866" t="n">
-        <v>126.9885714285703</v>
+        <v>127.4899999999989</v>
       </c>
       <c r="P866" t="n">
-        <v>128.942666666667</v>
+        <v>129.176666666667</v>
       </c>
       <c r="Q866" t="n">
-        <v>137.9786666666669</v>
+        <v>138.0956666666669</v>
       </c>
       <c r="R866" t="n">
-        <v>128.3</v>
+        <v>131.81</v>
       </c>
       <c r="S866" t="n">
-        <v>128.014372338145</v>
+        <v>130.354372338145</v>
       </c>
       <c r="T866" t="n">
-        <v>129.3514469934634</v>
+        <v>129.8914469934633</v>
       </c>
       <c r="U866" t="n">
-        <v>135.9572111011443</v>
+        <v>136.2172111011443</v>
       </c>
       <c r="V866" t="n">
-        <v>-6.605764107680983</v>
+        <v>-6.325764107680982</v>
       </c>
       <c r="W866" t="n">
-        <v>-7.366940645703707</v>
+        <v>-7.310940645703707</v>
       </c>
       <c r="X866" t="n">
-        <v>0.761176538022724</v>
+        <v>0.9851765380227251</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -79892,12 +79892,12 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>131.81000000</t>
+          <t>131.82000000</t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>128183.15096000</t>
+          <t>128356.40578000</t>
         </is>
       </c>
       <c r="G866" t="n">
@@ -79905,20 +79905,20 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>16605614.21490530</t>
+          <t>16628454.43571890</t>
         </is>
       </c>
       <c r="I866" t="n">
-        <v>54010</v>
+        <v>54087</v>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>63790.45804000</t>
+          <t>63890.11150000</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>8265696.86369070</t>
+          <t>8278834.35856570</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -79927,40 +79927,40 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>131.8099999999992</v>
+        <v>131.8199999999992</v>
       </c>
       <c r="N866" t="n">
-        <v>129.9600000000002</v>
+        <v>129.9650000000002</v>
       </c>
       <c r="O866" t="n">
-        <v>127.4899999999989</v>
+        <v>127.4914285714274</v>
       </c>
       <c r="P866" t="n">
-        <v>129.176666666667</v>
+        <v>129.1773333333337</v>
       </c>
       <c r="Q866" t="n">
-        <v>138.0956666666669</v>
+        <v>138.0960000000003</v>
       </c>
       <c r="R866" t="n">
-        <v>131.81</v>
+        <v>131.82</v>
       </c>
       <c r="S866" t="n">
-        <v>130.354372338145</v>
+        <v>130.3610390048117</v>
       </c>
       <c r="T866" t="n">
-        <v>129.8914469934633</v>
+        <v>129.8929854550018</v>
       </c>
       <c r="U866" t="n">
-        <v>136.2172111011443</v>
+        <v>136.2179518418851</v>
       </c>
       <c r="V866" t="n">
-        <v>-6.325764107680982</v>
+        <v>-6.32496638688329</v>
       </c>
       <c r="W866" t="n">
-        <v>-7.310940645703707</v>
+        <v>-7.310781101544168</v>
       </c>
       <c r="X866" t="n">
-        <v>0.9851765380227251</v>
+        <v>0.9858147146608784</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X866"/>
+  <dimension ref="A1:X867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79882,7 +79882,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>131.93000000</t>
+          <t>138.07000000</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
@@ -79892,12 +79892,12 @@
       </c>
       <c r="E866" t="inlineStr">
         <is>
-          <t>131.82000000</t>
+          <t>134.36000000</t>
         </is>
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>128356.40578000</t>
+          <t>316347.26666000</t>
         </is>
       </c>
       <c r="G866" t="n">
@@ -79905,20 +79905,20 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>16628454.43571890</t>
+          <t>41893078.36221210</t>
         </is>
       </c>
       <c r="I866" t="n">
-        <v>54087</v>
+        <v>115498</v>
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>63890.11150000</t>
+          <t>154769.98070000</t>
         </is>
       </c>
       <c r="K866" t="inlineStr">
         <is>
-          <t>8278834.35856570</t>
+          <t>20495780.18127650</t>
         </is>
       </c>
       <c r="L866" t="inlineStr">
@@ -79927,40 +79927,132 @@
         </is>
       </c>
       <c r="M866" t="n">
-        <v>131.8199999999992</v>
+        <v>134.3599999999992</v>
       </c>
       <c r="N866" t="n">
-        <v>129.9650000000002</v>
+        <v>131.2350000000002</v>
       </c>
       <c r="O866" t="n">
-        <v>127.4914285714274</v>
+        <v>127.8542857142846</v>
       </c>
       <c r="P866" t="n">
-        <v>129.1773333333337</v>
+        <v>129.346666666667</v>
       </c>
       <c r="Q866" t="n">
-        <v>138.0960000000003</v>
+        <v>138.1806666666669</v>
       </c>
       <c r="R866" t="n">
-        <v>131.82</v>
+        <v>134.36</v>
       </c>
       <c r="S866" t="n">
-        <v>130.3610390048117</v>
+        <v>132.054372338145</v>
       </c>
       <c r="T866" t="n">
-        <v>129.8929854550018</v>
+        <v>130.283754685771</v>
       </c>
       <c r="U866" t="n">
-        <v>136.2179518418851</v>
+        <v>136.4060999900333</v>
       </c>
       <c r="V866" t="n">
-        <v>-6.32496638688329</v>
+        <v>-6.122345304262211</v>
       </c>
       <c r="W866" t="n">
-        <v>-7.310781101544168</v>
+        <v>-7.270256885019952</v>
       </c>
       <c r="X866" t="n">
-        <v>0.9858147146608784</v>
+        <v>1.147911580757741</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>134.36000000</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>136.24000000</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>130.33000000</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>130.70000000</t>
+        </is>
+      </c>
+      <c r="F867" t="inlineStr">
+        <is>
+          <t>236283.25464000</t>
+        </is>
+      </c>
+      <c r="G867" t="n">
+        <v>1577750399999</v>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>31593668.97287620</t>
+        </is>
+      </c>
+      <c r="I867" t="n">
+        <v>70337</v>
+      </c>
+      <c r="J867" t="inlineStr">
+        <is>
+          <t>115196.20005000</t>
+        </is>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>15407529.78767640</t>
+        </is>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>2019-12-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="M867" t="n">
+        <v>130.6999999999992</v>
+      </c>
+      <c r="N867" t="n">
+        <v>132.5300000000002</v>
+      </c>
+      <c r="O867" t="n">
+        <v>128.2685714285703</v>
+      </c>
+      <c r="P867" t="n">
+        <v>128.562666666667</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>137.4916666666669</v>
+      </c>
+      <c r="R867" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="S867" t="n">
+        <v>131.1514574460483</v>
+      </c>
+      <c r="T867" t="n">
+        <v>130.3477924264216</v>
+      </c>
+      <c r="U867" t="n">
+        <v>135.9834259166975</v>
+      </c>
+      <c r="V867" t="n">
+        <v>-5.635633490275808</v>
+      </c>
+      <c r="W867" t="n">
+        <v>-6.943332206071124</v>
+      </c>
+      <c r="X867" t="n">
+        <v>1.307698715795317</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -79984,12 +79984,12 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>130.70000000</t>
+          <t>130.47000000</t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>236283.25464000</t>
+          <t>236795.09181000</t>
         </is>
       </c>
       <c r="G867" t="n">
@@ -79997,20 +79997,20 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>31593668.97287620</t>
+          <t>31660490.79451830</t>
         </is>
       </c>
       <c r="I867" t="n">
-        <v>70337</v>
+        <v>70476</v>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>115196.20005000</t>
+          <t>115469.68419000</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>15407529.78767640</t>
+          <t>15443235.54415320</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
@@ -80019,40 +80019,40 @@
         </is>
       </c>
       <c r="M867" t="n">
-        <v>130.6999999999992</v>
+        <v>130.4699999999992</v>
       </c>
       <c r="N867" t="n">
-        <v>132.5300000000002</v>
+        <v>132.4150000000002</v>
       </c>
       <c r="O867" t="n">
-        <v>128.2685714285703</v>
+        <v>128.2357142857131</v>
       </c>
       <c r="P867" t="n">
-        <v>128.562666666667</v>
+        <v>128.5473333333337</v>
       </c>
       <c r="Q867" t="n">
-        <v>137.4916666666669</v>
+        <v>137.4840000000003</v>
       </c>
       <c r="R867" t="n">
-        <v>130.7</v>
+        <v>130.47</v>
       </c>
       <c r="S867" t="n">
-        <v>131.1514574460483</v>
+        <v>130.998124112715</v>
       </c>
       <c r="T867" t="n">
-        <v>130.3477924264216</v>
+        <v>130.312407811037</v>
       </c>
       <c r="U867" t="n">
-        <v>135.9834259166975</v>
+        <v>135.9663888796604</v>
       </c>
       <c r="V867" t="n">
-        <v>-5.635633490275808</v>
+        <v>-5.653981068623381</v>
       </c>
       <c r="W867" t="n">
-        <v>-6.943332206071124</v>
+        <v>-6.947001721740639</v>
       </c>
       <c r="X867" t="n">
-        <v>1.307698715795317</v>
+        <v>1.293020653117258</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -79979,17 +79979,17 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>130.33000000</t>
+          <t>130.30000000</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>130.47000000</t>
+          <t>131.29000000</t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>236795.09181000</t>
+          <t>267805.58315000</t>
         </is>
       </c>
       <c r="G867" t="n">
@@ -79997,20 +79997,20 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>31660490.79451830</t>
+          <t>35717036.53360180</t>
         </is>
       </c>
       <c r="I867" t="n">
-        <v>70476</v>
+        <v>80990</v>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>115469.68419000</t>
+          <t>128942.90379000</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>15443235.54415320</t>
+          <t>17205475.24753970</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
@@ -80019,40 +80019,40 @@
         </is>
       </c>
       <c r="M867" t="n">
-        <v>130.4699999999992</v>
+        <v>131.2899999999992</v>
       </c>
       <c r="N867" t="n">
-        <v>132.4150000000002</v>
+        <v>132.8250000000002</v>
       </c>
       <c r="O867" t="n">
-        <v>128.2357142857131</v>
+        <v>128.352857142856</v>
       </c>
       <c r="P867" t="n">
-        <v>128.5473333333337</v>
+        <v>128.6020000000003</v>
       </c>
       <c r="Q867" t="n">
-        <v>137.4840000000003</v>
+        <v>137.5113333333336</v>
       </c>
       <c r="R867" t="n">
-        <v>130.47</v>
+        <v>131.29</v>
       </c>
       <c r="S867" t="n">
-        <v>130.998124112715</v>
+        <v>131.5447907793817</v>
       </c>
       <c r="T867" t="n">
-        <v>130.312407811037</v>
+        <v>130.4385616571909</v>
       </c>
       <c r="U867" t="n">
-        <v>135.9663888796604</v>
+        <v>136.0271296204012</v>
       </c>
       <c r="V867" t="n">
-        <v>-5.653981068623381</v>
+        <v>-5.588567963210295</v>
       </c>
       <c r="W867" t="n">
-        <v>-6.947001721740639</v>
+        <v>-6.933919100658022</v>
       </c>
       <c r="X867" t="n">
-        <v>1.293020653117258</v>
+        <v>1.345351137447727</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -79984,12 +79984,12 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>131.29000000</t>
+          <t>132.03000000</t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>267805.58315000</t>
+          <t>314337.97485000</t>
         </is>
       </c>
       <c r="G867" t="n">
@@ -79997,20 +79997,20 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>35717036.53360180</t>
+          <t>41845455.90290630</t>
         </is>
       </c>
       <c r="I867" t="n">
-        <v>80990</v>
+        <v>99114</v>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>128942.90379000</t>
+          <t>150902.67991000</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>17205475.24753970</t>
+          <t>20097687.06938920</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
@@ -80019,40 +80019,40 @@
         </is>
       </c>
       <c r="M867" t="n">
-        <v>131.2899999999992</v>
+        <v>132.0299999999992</v>
       </c>
       <c r="N867" t="n">
-        <v>132.8250000000002</v>
+        <v>133.1950000000002</v>
       </c>
       <c r="O867" t="n">
-        <v>128.352857142856</v>
+        <v>128.4585714285703</v>
       </c>
       <c r="P867" t="n">
-        <v>128.6020000000003</v>
+        <v>128.6513333333337</v>
       </c>
       <c r="Q867" t="n">
-        <v>137.5113333333336</v>
+        <v>137.5360000000002</v>
       </c>
       <c r="R867" t="n">
-        <v>131.29</v>
+        <v>132.03</v>
       </c>
       <c r="S867" t="n">
-        <v>131.5447907793817</v>
+        <v>132.038124112715</v>
       </c>
       <c r="T867" t="n">
-        <v>130.4385616571909</v>
+        <v>130.552407811037</v>
       </c>
       <c r="U867" t="n">
-        <v>136.0271296204012</v>
+        <v>136.081944435216</v>
       </c>
       <c r="V867" t="n">
-        <v>-5.588567963210295</v>
+        <v>-5.529536624178945</v>
       </c>
       <c r="W867" t="n">
-        <v>-6.933919100658022</v>
+        <v>-6.922112832851752</v>
       </c>
       <c r="X867" t="n">
-        <v>1.345351137447727</v>
+        <v>1.392576208672807</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X867"/>
+  <dimension ref="A1:X872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79984,12 +79984,12 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>132.03000000</t>
+          <t>131.59000000</t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>314337.97485000</t>
+          <t>320347.21956000</t>
         </is>
       </c>
       <c r="G867" t="n">
@@ -79997,20 +79997,20 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>41845455.90290630</t>
+          <t>42636559.38241520</t>
         </is>
       </c>
       <c r="I867" t="n">
-        <v>99114</v>
+        <v>101293</v>
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>150902.67991000</t>
+          <t>153829.18058000</t>
         </is>
       </c>
       <c r="K867" t="inlineStr">
         <is>
-          <t>20097687.06938920</t>
+          <t>20482964.26516290</t>
         </is>
       </c>
       <c r="L867" t="inlineStr">
@@ -80019,40 +80019,500 @@
         </is>
       </c>
       <c r="M867" t="n">
-        <v>132.0299999999992</v>
+        <v>131.5899999999992</v>
       </c>
       <c r="N867" t="n">
-        <v>133.1950000000002</v>
+        <v>132.9750000000003</v>
       </c>
       <c r="O867" t="n">
-        <v>128.4585714285703</v>
+        <v>128.3957142857132</v>
       </c>
       <c r="P867" t="n">
-        <v>128.6513333333337</v>
+        <v>128.6220000000004</v>
       </c>
       <c r="Q867" t="n">
-        <v>137.5360000000002</v>
+        <v>137.5213333333336</v>
       </c>
       <c r="R867" t="n">
-        <v>132.03</v>
+        <v>131.59</v>
       </c>
       <c r="S867" t="n">
-        <v>132.038124112715</v>
+        <v>131.7447907793817</v>
       </c>
       <c r="T867" t="n">
-        <v>130.552407811037</v>
+        <v>130.4847155033447</v>
       </c>
       <c r="U867" t="n">
-        <v>136.081944435216</v>
+        <v>136.0493518426234</v>
       </c>
       <c r="V867" t="n">
-        <v>-5.529536624178945</v>
+        <v>-5.564636339278678</v>
       </c>
       <c r="W867" t="n">
-        <v>-6.922112832851752</v>
+        <v>-6.929132775871699</v>
       </c>
       <c r="X867" t="n">
-        <v>1.392576208672807</v>
+        <v>1.36449643659302</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>131.61000000</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>133.68000000</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>128.17000000</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>129.16000000</t>
+        </is>
+      </c>
+      <c r="F868" t="inlineStr">
+        <is>
+          <t>264933.98418000</t>
+        </is>
+      </c>
+      <c r="G868" t="n">
+        <v>1577836799999</v>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>34678632.17959370</t>
+        </is>
+      </c>
+      <c r="I868" t="n">
+        <v>95085</v>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>131010.02709000</t>
+        </is>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>17146486.49368810</t>
+        </is>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>2019-12-31 08:00:00</t>
+        </is>
+      </c>
+      <c r="M868" t="n">
+        <v>129.1599999999992</v>
+      </c>
+      <c r="N868" t="n">
+        <v>130.3750000000002</v>
+      </c>
+      <c r="O868" t="n">
+        <v>128.5971428571417</v>
+      </c>
+      <c r="P868" t="n">
+        <v>128.3840000000004</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>136.8023333333336</v>
+      </c>
+      <c r="R868" t="n">
+        <v>129.16</v>
+      </c>
+      <c r="S868" t="n">
+        <v>130.0215969264605</v>
+      </c>
+      <c r="T868" t="n">
+        <v>130.2809131182148</v>
+      </c>
+      <c r="U868" t="n">
+        <v>135.5390294839106</v>
+      </c>
+      <c r="V868" t="n">
+        <v>-5.258116365695798</v>
+      </c>
+      <c r="W868" t="n">
+        <v>-6.59492949383652</v>
+      </c>
+      <c r="X868" t="n">
+        <v>1.336813128140721</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>129.16000000</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>133.05000000</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>128.68000000</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>130.77000000</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>144770.52197000</t>
+        </is>
+      </c>
+      <c r="G869" t="n">
+        <v>1577923199999</v>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>18952318.53206430</t>
+        </is>
+      </c>
+      <c r="I869" t="n">
+        <v>75888</v>
+      </c>
+      <c r="J869" t="inlineStr">
+        <is>
+          <t>71847.93883000</t>
+        </is>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>9407940.16106830</t>
+        </is>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>2020-01-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M869" t="n">
+        <v>130.7699999999992</v>
+      </c>
+      <c r="N869" t="n">
+        <v>129.9650000000002</v>
+      </c>
+      <c r="O869" t="n">
+        <v>129.4085714285703</v>
+      </c>
+      <c r="P869" t="n">
+        <v>128.976666666667</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>136.2063333333336</v>
+      </c>
+      <c r="R869" t="n">
+        <v>130.77</v>
+      </c>
+      <c r="S869" t="n">
+        <v>130.5205323088202</v>
+      </c>
+      <c r="T869" t="n">
+        <v>130.356157253874</v>
+      </c>
+      <c r="U869" t="n">
+        <v>135.1857680406579</v>
+      </c>
+      <c r="V869" t="n">
+        <v>-4.829610786783888</v>
+      </c>
+      <c r="W869" t="n">
+        <v>-6.241865752425994</v>
+      </c>
+      <c r="X869" t="n">
+        <v>1.412254965642106</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>130.72000000</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>130.78000000</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>126.38000000</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>127.19000000</t>
+        </is>
+      </c>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>213757.05806000</t>
+        </is>
+      </c>
+      <c r="G870" t="n">
+        <v>1578009599999</v>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>27486853.39482150</t>
+        </is>
+      </c>
+      <c r="I870" t="n">
+        <v>96193</v>
+      </c>
+      <c r="J870" t="inlineStr">
+        <is>
+          <t>105830.56192000</t>
+        </is>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>13615064.56872850</t>
+        </is>
+      </c>
+      <c r="L870" t="inlineStr">
+        <is>
+          <t>2020-01-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M870" t="n">
+        <v>127.1899999999992</v>
+      </c>
+      <c r="N870" t="n">
+        <v>128.9800000000002</v>
+      </c>
+      <c r="O870" t="n">
+        <v>129.6385714285703</v>
+      </c>
+      <c r="P870" t="n">
+        <v>128.6040000000004</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>135.5403333333336</v>
+      </c>
+      <c r="R870" t="n">
+        <v>127.19</v>
+      </c>
+      <c r="S870" t="n">
+        <v>128.3001774362734</v>
+      </c>
+      <c r="T870" t="n">
+        <v>129.8690561378934</v>
+      </c>
+      <c r="U870" t="n">
+        <v>134.5934889265351</v>
+      </c>
+      <c r="V870" t="n">
+        <v>-4.724432788641678</v>
+      </c>
+      <c r="W870" t="n">
+        <v>-5.938379159669132</v>
+      </c>
+      <c r="X870" t="n">
+        <v>1.213946371027453</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>127.19000000</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>135.14000000</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>125.88000000</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>134.35000000</t>
+        </is>
+      </c>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>413055.18895000</t>
+        </is>
+      </c>
+      <c r="G871" t="n">
+        <v>1578095999999</v>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>54139288.21657680</t>
+        </is>
+      </c>
+      <c r="I871" t="n">
+        <v>162310</v>
+      </c>
+      <c r="J871" t="inlineStr">
+        <is>
+          <t>227899.25531000</t>
+        </is>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>29863547.62120130</t>
+        </is>
+      </c>
+      <c r="L871" t="inlineStr">
+        <is>
+          <t>2020-01-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M871" t="n">
+        <v>134.3499999999992</v>
+      </c>
+      <c r="N871" t="n">
+        <v>130.7700000000002</v>
+      </c>
+      <c r="O871" t="n">
+        <v>130.7899999999989</v>
+      </c>
+      <c r="P871" t="n">
+        <v>129.020666666667</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>135.1726666666669</v>
+      </c>
+      <c r="R871" t="n">
+        <v>134.35</v>
+      </c>
+      <c r="S871" t="n">
+        <v>132.3333924787578</v>
+      </c>
+      <c r="T871" t="n">
+        <v>130.5584321166791</v>
+      </c>
+      <c r="U871" t="n">
+        <v>134.5754527097547</v>
+      </c>
+      <c r="V871" t="n">
+        <v>-4.017020593075642</v>
+      </c>
+      <c r="W871" t="n">
+        <v>-5.554107446350434</v>
+      </c>
+      <c r="X871" t="n">
+        <v>1.537086853274792</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>134.37000000</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>134.81000000</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>132.79000000</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>133.81000000</t>
+        </is>
+      </c>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>54225.72281000</t>
+        </is>
+      </c>
+      <c r="G872" t="n">
+        <v>1578182399999</v>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>7245234.05055340</t>
+        </is>
+      </c>
+      <c r="I872" t="n">
+        <v>27879</v>
+      </c>
+      <c r="J872" t="inlineStr">
+        <is>
+          <t>25281.39425000</t>
+        </is>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>3378073.84193540</t>
+        </is>
+      </c>
+      <c r="L872" t="inlineStr">
+        <is>
+          <t>2020-01-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M872" t="n">
+        <v>133.8099999999992</v>
+      </c>
+      <c r="N872" t="n">
+        <v>134.0800000000002</v>
+      </c>
+      <c r="O872" t="n">
+        <v>131.6042857142846</v>
+      </c>
+      <c r="P872" t="n">
+        <v>129.3953333333337</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>134.6963333333336</v>
+      </c>
+      <c r="R872" t="n">
+        <v>133.81</v>
+      </c>
+      <c r="S872" t="n">
+        <v>133.3177974929193</v>
+      </c>
+      <c r="T872" t="n">
+        <v>131.0586733294977</v>
+      </c>
+      <c r="U872" t="n">
+        <v>134.5187525090321</v>
+      </c>
+      <c r="V872" t="n">
+        <v>-3.460079179534461</v>
+      </c>
+      <c r="W872" t="n">
+        <v>-5.13530179298724</v>
+      </c>
+      <c r="X872" t="n">
+        <v>1.675222613452779</v>
       </c>
     </row>
   </sheetData>

--- a/binance_ETHUSDT_data.xlsx
+++ b/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X872"/>
+  <dimension ref="A1:X881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80434,22 +80434,22 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>134.81000000</t>
+          <t>135.85000000</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
         <is>
-          <t>132.79000000</t>
+          <t>132.50000000</t>
         </is>
       </c>
       <c r="E872" t="inlineStr">
         <is>
-          <t>133.81000000</t>
+          <t>134.20000000</t>
         </is>
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>54225.72281000</t>
+          <t>184276.17102000</t>
         </is>
       </c>
       <c r="G872" t="n">
@@ -80457,20 +80457,20 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>7245234.05055340</t>
+          <t>24641135.56895300</t>
         </is>
       </c>
       <c r="I872" t="n">
-        <v>27879</v>
+        <v>95488</v>
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>25281.39425000</t>
+          <t>85809.67556000</t>
         </is>
       </c>
       <c r="K872" t="inlineStr">
         <is>
-          <t>3378073.84193540</t>
+          <t>11476955.59469460</t>
         </is>
       </c>
       <c r="L872" t="inlineStr">
@@ -80479,40 +80479,868 @@
         </is>
       </c>
       <c r="M872" t="n">
-        <v>133.8099999999992</v>
+        <v>134.1999999999992</v>
       </c>
       <c r="N872" t="n">
-        <v>134.0800000000002</v>
+        <v>134.2750000000002</v>
       </c>
       <c r="O872" t="n">
-        <v>131.6042857142846</v>
+        <v>131.6599999999989</v>
       </c>
       <c r="P872" t="n">
-        <v>129.3953333333337</v>
+        <v>129.4213333333337</v>
       </c>
       <c r="Q872" t="n">
-        <v>134.6963333333336</v>
+        <v>134.7093333333336</v>
       </c>
       <c r="R872" t="n">
-        <v>133.81</v>
+        <v>134.2</v>
       </c>
       <c r="S872" t="n">
-        <v>133.3177974929193</v>
+        <v>133.5777974929192</v>
       </c>
       <c r="T872" t="n">
-        <v>131.0586733294977</v>
+        <v>131.1186733294977</v>
       </c>
       <c r="U872" t="n">
-        <v>134.5187525090321</v>
+        <v>134.547641397921</v>
       </c>
       <c r="V872" t="n">
-        <v>-3.460079179534461</v>
+        <v>-3.428968068423387</v>
       </c>
       <c r="W872" t="n">
-        <v>-5.13530179298724</v>
+        <v>-5.129079570765025</v>
       </c>
       <c r="X872" t="n">
-        <v>1.675222613452779</v>
+        <v>1.700111502341638</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>134.20000000</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>138.19000000</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>134.19000000</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>135.37000000</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr">
+        <is>
+          <t>254120.45343000</t>
+        </is>
+      </c>
+      <c r="G873" t="n">
+        <v>1578268799999</v>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>34593687.60327480</t>
+        </is>
+      </c>
+      <c r="I873" t="n">
+        <v>115106</v>
+      </c>
+      <c r="J873" t="inlineStr">
+        <is>
+          <t>126786.52057000</t>
+        </is>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>17260443.97042190</t>
+        </is>
+      </c>
+      <c r="L873" t="inlineStr">
+        <is>
+          <t>2020-01-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M873" t="n">
+        <v>135.3699999999993</v>
+      </c>
+      <c r="N873" t="n">
+        <v>134.7850000000002</v>
+      </c>
+      <c r="O873" t="n">
+        <v>131.8042857142846</v>
+      </c>
+      <c r="P873" t="n">
+        <v>129.9800000000003</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>134.2733333333336</v>
+      </c>
+      <c r="R873" t="n">
+        <v>135.37</v>
+      </c>
+      <c r="S873" t="n">
+        <v>134.7725991643064</v>
+      </c>
+      <c r="T873" t="n">
+        <v>131.772723586498</v>
+      </c>
+      <c r="U873" t="n">
+        <v>134.6085568499269</v>
+      </c>
+      <c r="V873" t="n">
+        <v>-2.835833263428867</v>
+      </c>
+      <c r="W873" t="n">
+        <v>-4.670430309297794</v>
+      </c>
+      <c r="X873" t="n">
+        <v>1.834597045868927</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>135.37000000</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>144.41000000</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>134.86000000</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>144.15000000</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>408020.27375000</t>
+        </is>
+      </c>
+      <c r="G874" t="n">
+        <v>1578355199999</v>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>57400544.48725700</t>
+        </is>
+      </c>
+      <c r="I874" t="n">
+        <v>159866</v>
+      </c>
+      <c r="J874" t="inlineStr">
+        <is>
+          <t>199544.89847000</t>
+        </is>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>28085835.71855720</t>
+        </is>
+      </c>
+      <c r="L874" t="inlineStr">
+        <is>
+          <t>2020-01-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M874" t="n">
+        <v>144.1499999999993</v>
+      </c>
+      <c r="N874" t="n">
+        <v>139.7600000000002</v>
+      </c>
+      <c r="O874" t="n">
+        <v>133.5985714285703</v>
+      </c>
+      <c r="P874" t="n">
+        <v>130.7840000000003</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>134.1736666666669</v>
+      </c>
+      <c r="R874" t="n">
+        <v>144.15</v>
+      </c>
+      <c r="S874" t="n">
+        <v>141.0241997214355</v>
+      </c>
+      <c r="T874" t="n">
+        <v>133.676919957806</v>
+      </c>
+      <c r="U874" t="n">
+        <v>135.315330416599</v>
+      </c>
+      <c r="V874" t="n">
+        <v>-1.638410458792976</v>
+      </c>
+      <c r="W874" t="n">
+        <v>-4.064026339196831</v>
+      </c>
+      <c r="X874" t="n">
+        <v>2.425615880403855</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>144.14000000</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>145.31000000</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>138.76000000</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>142.80000000</t>
+        </is>
+      </c>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>447762.17281000</t>
+        </is>
+      </c>
+      <c r="G875" t="n">
+        <v>1578441599999</v>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>63861666.40475940</t>
+        </is>
+      </c>
+      <c r="I875" t="n">
+        <v>188444</v>
+      </c>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>224063.89164000</t>
+        </is>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>31981440.09214260</t>
+        </is>
+      </c>
+      <c r="L875" t="inlineStr">
+        <is>
+          <t>2020-01-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M875" t="n">
+        <v>142.7999999999993</v>
+      </c>
+      <c r="N875" t="n">
+        <v>143.4750000000002</v>
+      </c>
+      <c r="O875" t="n">
+        <v>135.5471428571417</v>
+      </c>
+      <c r="P875" t="n">
+        <v>131.7840000000003</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>133.9190000000003</v>
+      </c>
+      <c r="R875" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="S875" t="n">
+        <v>142.2080665738118</v>
+      </c>
+      <c r="T875" t="n">
+        <v>135.0804707335282</v>
+      </c>
+      <c r="U875" t="n">
+        <v>135.8697503857398</v>
+      </c>
+      <c r="V875" t="n">
+        <v>-0.7892796522116328</v>
+      </c>
+      <c r="W875" t="n">
+        <v>-3.409077001799791</v>
+      </c>
+      <c r="X875" t="n">
+        <v>2.619797349588158</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>142.80000000</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>147.77000000</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>137.03000000</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>140.72000000</t>
+        </is>
+      </c>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>570465.57764000</t>
+        </is>
+      </c>
+      <c r="G876" t="n">
+        <v>1578527999999</v>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>81184999.73195760</t>
+        </is>
+      </c>
+      <c r="I876" t="n">
+        <v>229912</v>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>282151.20995000</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>40157986.56999530</t>
+        </is>
+      </c>
+      <c r="L876" t="inlineStr">
+        <is>
+          <t>2020-01-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M876" t="n">
+        <v>140.7199999999993</v>
+      </c>
+      <c r="N876" t="n">
+        <v>141.7600000000002</v>
+      </c>
+      <c r="O876" t="n">
+        <v>136.9685714285703</v>
+      </c>
+      <c r="P876" t="n">
+        <v>132.648666666667</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>133.6970000000003</v>
+      </c>
+      <c r="R876" t="n">
+        <v>140.72</v>
+      </c>
+      <c r="S876" t="n">
+        <v>141.2160221912706</v>
+      </c>
+      <c r="T876" t="n">
+        <v>135.9480906206777</v>
+      </c>
+      <c r="U876" t="n">
+        <v>136.2290281349443</v>
+      </c>
+      <c r="V876" t="n">
+        <v>-0.2809375142665829</v>
+      </c>
+      <c r="W876" t="n">
+        <v>-2.783449104293149</v>
+      </c>
+      <c r="X876" t="n">
+        <v>2.502511590026566</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>140.76000000</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>141.50000000</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>135.30000000</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>137.74000000</t>
+        </is>
+      </c>
+      <c r="F877" t="inlineStr">
+        <is>
+          <t>366076.06569000</t>
+        </is>
+      </c>
+      <c r="G877" t="n">
+        <v>1578614399999</v>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>50611452.58464480</t>
+        </is>
+      </c>
+      <c r="I877" t="n">
+        <v>152241</v>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>185916.38689000</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>25716637.96851200</t>
+        </is>
+      </c>
+      <c r="L877" t="inlineStr">
+        <is>
+          <t>2020-01-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M877" t="n">
+        <v>137.7399999999993</v>
+      </c>
+      <c r="N877" t="n">
+        <v>139.2300000000002</v>
+      </c>
+      <c r="O877" t="n">
+        <v>138.4757142857131</v>
+      </c>
+      <c r="P877" t="n">
+        <v>133.4920000000003</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>133.4363333333336</v>
+      </c>
+      <c r="R877" t="n">
+        <v>137.74</v>
+      </c>
+      <c r="S877" t="n">
+        <v>138.8986740637569</v>
+      </c>
+      <c r="T877" t="n">
+        <v>136.2237689867273</v>
+      </c>
+      <c r="U877" t="n">
+        <v>136.3409519768003</v>
+      </c>
+      <c r="V877" t="n">
+        <v>-0.1171829900729904</v>
+      </c>
+      <c r="W877" t="n">
+        <v>-2.250195881449117</v>
+      </c>
+      <c r="X877" t="n">
+        <v>2.133012891376127</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>137.73000000</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>145.17000000</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>135.32000000</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>144.84000000</t>
+        </is>
+      </c>
+      <c r="F878" t="inlineStr">
+        <is>
+          <t>409403.59507000</t>
+        </is>
+      </c>
+      <c r="G878" t="n">
+        <v>1578700799999</v>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>57377525.56268220</t>
+        </is>
+      </c>
+      <c r="I878" t="n">
+        <v>167313</v>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>212395.40493000</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>29753335.79090260</t>
+        </is>
+      </c>
+      <c r="L878" t="inlineStr">
+        <is>
+          <t>2020-01-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M878" t="n">
+        <v>144.8399999999993</v>
+      </c>
+      <c r="N878" t="n">
+        <v>141.2900000000002</v>
+      </c>
+      <c r="O878" t="n">
+        <v>139.9742857142845</v>
+      </c>
+      <c r="P878" t="n">
+        <v>134.7760000000003</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>133.4846666666669</v>
+      </c>
+      <c r="R878" t="n">
+        <v>144.84</v>
+      </c>
+      <c r="S878" t="n">
+        <v>142.8595580212523</v>
+      </c>
+      <c r="T878" t="n">
+        <v>137.5493429887692</v>
+      </c>
+      <c r="U878" t="n">
+        <v>136.9705110896299</v>
+      </c>
+      <c r="V878" t="n">
+        <v>0.5788318991393737</v>
+      </c>
+      <c r="W878" t="n">
+        <v>-1.684390325331419</v>
+      </c>
+      <c r="X878" t="n">
+        <v>2.263222224470793</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>144.83000000</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>148.05000000</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>142.09000000</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>142.38000000</t>
+        </is>
+      </c>
+      <c r="F879" t="inlineStr">
+        <is>
+          <t>368350.57939000</t>
+        </is>
+      </c>
+      <c r="G879" t="n">
+        <v>1578787199999</v>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>53149360.56174780</t>
+        </is>
+      </c>
+      <c r="I879" t="n">
+        <v>156488</v>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>189781.12128000</t>
+        </is>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>27384707.92905200</t>
+        </is>
+      </c>
+      <c r="L879" t="inlineStr">
+        <is>
+          <t>2020-01-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M879" t="n">
+        <v>142.3799999999993</v>
+      </c>
+      <c r="N879" t="n">
+        <v>143.6100000000002</v>
+      </c>
+      <c r="O879" t="n">
+        <v>141.142857142856</v>
+      </c>
+      <c r="P879" t="n">
+        <v>135.848666666667</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>133.4016666666669</v>
+      </c>
+      <c r="R879" t="n">
+        <v>142.38</v>
+      </c>
+      <c r="S879" t="n">
+        <v>142.5398526737507</v>
+      </c>
+      <c r="T879" t="n">
+        <v>138.2925209904971</v>
+      </c>
+      <c r="U879" t="n">
+        <v>137.3712139718795</v>
+      </c>
+      <c r="V879" t="n">
+        <v>0.9213070186175685</v>
+      </c>
+      <c r="W879" t="n">
+        <v>-1.163250856541621</v>
+      </c>
+      <c r="X879" t="n">
+        <v>2.08455787515919</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>142.40000000</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>146.60000000</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>141.76000000</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>146.54000000</t>
+        </is>
+      </c>
+      <c r="F880" t="inlineStr">
+        <is>
+          <t>229541.86137000</t>
+        </is>
+      </c>
+      <c r="G880" t="n">
+        <v>1578873599999</v>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>33112850.82223460</t>
+        </is>
+      </c>
+      <c r="I880" t="n">
+        <v>110842</v>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>112369.46853000</t>
+        </is>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>16214587.12917720</t>
+        </is>
+      </c>
+      <c r="L880" t="inlineStr">
+        <is>
+          <t>2020-01-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M880" t="n">
+        <v>146.5399999999993</v>
+      </c>
+      <c r="N880" t="n">
+        <v>144.4600000000002</v>
+      </c>
+      <c r="O880" t="n">
+        <v>142.7385714285703</v>
+      </c>
+      <c r="P880" t="n">
+        <v>137.0773333333337</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>133.4596666666669</v>
+      </c>
+      <c r="R880" t="n">
+        <v>146.54</v>
+      </c>
+      <c r="S880" t="n">
+        <v>145.2066175579169</v>
+      </c>
+      <c r="T880" t="n">
+        <v>139.561363915036</v>
+      </c>
+      <c r="U880" t="n">
+        <v>138.0503833072958</v>
+      </c>
+      <c r="V880" t="n">
+        <v>1.510980607740152</v>
+      </c>
+      <c r="W880" t="n">
+        <v>-0.6284045636852666</v>
+      </c>
+      <c r="X880" t="n">
+        <v>2.139385171425418</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>146.56000000</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>147.00000000</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>142.27000000</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>142.94000000</t>
+        </is>
+      </c>
+      <c r="F881" t="inlineStr">
+        <is>
+          <t>145202.55207000</t>
+        </is>
+      </c>
+      <c r="G881" t="n">
+        <v>1578959999999</v>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>20871284.85867780</t>
+        </is>
+      </c>
+      <c r="I881" t="n">
+        <v>67158</v>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>69155.25646000</t>
+        </is>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>9942850.76651880</t>
+        </is>
+      </c>
+      <c r="L881" t="inlineStr">
+        <is>
+          <t>2020-01-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M881" t="n">
+        <v>142.9399999999993</v>
+      </c>
+      <c r="N881" t="n">
+        <v>144.7400000000002</v>
+      </c>
+      <c r="O881" t="n">
+        <v>142.5657142857131</v>
+      </c>
+      <c r="P881" t="n">
+        <v>137.6493333333337</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>133.4980000000002</v>
+      </c>
+      <c r="R881" t="n">
+        <v>142.94</v>
+      </c>
+      <c r="S881" t="n">
+        <v>143.6955391859723</v>
+      </c>
+      <c r="T881" t="n">
+        <v>140.0811540819535</v>
+      </c>
+      <c r="U881" t="n">
+        <v>138.412577136385</v>
+      </c>
+      <c r="V881" t="n">
+        <v>1.668576945568475</v>
+      </c>
+      <c r="W881" t="n">
+        <v>-0.1690082618345182</v>
+      </c>
+      <c r="X881" t="n">
+        <v>1.837585207402993</v>
       </c>
     </row>
   </sheetData>
